--- a/DEX_双周报模板2.xlsx
+++ b/DEX_双周报模板2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cryyu/Documents/Projects-python/DEX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faker\ImportantFile\DoDO research\DEX代码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0BEA54-3E7D-7C48-A027-0620B1C8FB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57D79F7-2318-4CAB-AC8F-94E5434713CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{68AF2AE8-E4CF-4C76-B7E9-E365C91C23E1}"/>
+    <workbookView xWindow="7620" yWindow="2232" windowWidth="23040" windowHeight="12660" activeTab="2" xr2:uid="{68AF2AE8-E4CF-4C76-B7E9-E365C91C23E1}"/>
   </bookViews>
   <sheets>
     <sheet name="废弃" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="507">
   <si>
     <t>apex-pro</t>
   </si>
@@ -1583,6 +1583,10 @@
   <si>
     <t>WOOFi</t>
   </si>
+  <si>
+    <t>升序排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1592,14 +1596,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1608,7 +1612,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1617,7 +1621,7 @@
       <b/>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1626,7 +1630,7 @@
       <b/>
       <sz val="26"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1635,7 +1639,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1644,7 +1648,7 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1653,7 +1657,7 @@
       <b/>
       <sz val="22"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1661,7 +1665,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1669,7 +1673,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1677,13 +1681,13 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1717,6 +1721,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1824,7 +1834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1888,7 +1898,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1940,21 +1949,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1972,7 +1988,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2035,7 +2051,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2072,7 +2088,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -2203,7 +2219,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -2334,7 +2350,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -2465,7 +2481,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -2596,7 +2612,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -2727,7 +2743,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -2860,7 +2876,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -2993,7 +3009,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -3126,7 +3142,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -3259,7 +3275,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -3392,7 +3408,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -3525,7 +3541,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -3659,7 +3675,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -3793,7 +3809,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -3927,7 +3943,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -4061,7 +4077,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -4195,7 +4211,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -4329,7 +4345,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -4462,7 +4478,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -4595,7 +4611,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -4717,7 +4733,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4751,7 +4767,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="840193871"/>
@@ -4809,7 +4825,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="840195119"/>
@@ -4851,7 +4867,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4888,7 +4904,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4902,7 +4918,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4965,7 +4981,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5002,7 +5018,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -5133,7 +5149,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -5264,7 +5280,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -5395,7 +5411,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -5526,7 +5542,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -5657,7 +5673,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -5790,7 +5806,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -5923,7 +5939,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -6056,7 +6072,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -6189,7 +6205,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -6322,7 +6338,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -6455,7 +6471,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -6589,7 +6605,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -6723,7 +6739,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -6857,7 +6873,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -6991,7 +7007,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -7125,7 +7141,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -7259,7 +7275,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -7392,7 +7408,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -7525,7 +7541,7 @@
             <c:numRef>
               <c:f>新新工作区!$AS$1:$BF$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45308</c:v>
@@ -7647,7 +7663,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7681,7 +7697,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="840193871"/>
@@ -7739,7 +7755,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="840195119"/>
@@ -7781,7 +7797,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7818,7 +7834,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7832,7 +7848,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7894,7 +7910,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8119,7 +8135,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1080211343"/>
@@ -8178,7 +8194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1080213007"/>
@@ -8226,7 +8242,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8240,7 +8256,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8303,7 +8319,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8528,7 +8544,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1080211343"/>
@@ -8587,7 +8603,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1080213007"/>
@@ -8635,7 +8651,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8649,7 +8665,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8716,7 +8732,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9200,7 +9216,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9417,7 +9433,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9454,7 +9470,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9468,7 +9484,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9530,7 +9546,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10014,7 +10030,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10231,7 +10247,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10268,7 +10284,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13831,7 +13847,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14419,19 +14435,19 @@
       <selection activeCell="AJ1" sqref="AJ1:AQ21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="18" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="30" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="28.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="30" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -14544,7 +14560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>385</v>
       </c>
@@ -14664,7 +14680,7 @@
         <v>0.55155785936322599</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>382</v>
       </c>
@@ -14784,7 +14800,7 @@
         <v>0.12085866942905751</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
@@ -14904,7 +14920,7 @@
         <v>6.9120114567709792E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>226</v>
       </c>
@@ -15024,7 +15040,7 @@
         <v>5.4926994675021074E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>147</v>
       </c>
@@ -15144,7 +15160,7 @@
         <v>5.1512897478287696E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>336</v>
       </c>
@@ -15264,7 +15280,7 @@
         <v>3.3667424912299668E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>101</v>
       </c>
@@ -15384,7 +15400,7 @@
         <v>2.0368473786533312E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>331</v>
       </c>
@@ -15504,7 +15520,7 @@
         <v>2.0004801874690593E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>231</v>
       </c>
@@ -15624,7 +15640,7 @@
         <v>1.7651212152513258E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>323</v>
       </c>
@@ -15744,7 +15760,7 @@
         <v>1.7444717248133308E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>284</v>
       </c>
@@ -15864,7 +15880,7 @@
         <v>1.6116796483062683E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>342</v>
       </c>
@@ -15984,7 +16000,7 @@
         <v>1.5438862509376251E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>216</v>
       </c>
@@ -16104,7 +16120,7 @@
         <v>1.3608417772207667E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>213</v>
       </c>
@@ -16224,7 +16240,7 @@
         <v>1.2417995738011363E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>219</v>
       </c>
@@ -16344,7 +16360,7 @@
         <v>9.945614487780266E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>183</v>
       </c>
@@ -16464,7 +16480,7 @@
         <v>9.369022926924514E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>296</v>
       </c>
@@ -16584,7 +16600,7 @@
         <v>7.2926888361692851E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>282</v>
       </c>
@@ -16704,7 +16720,7 @@
         <v>5.6935968369388693E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>258</v>
       </c>
@@ -16824,7 +16840,7 @@
         <v>5.6053537278089264E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>326</v>
       </c>
@@ -16944,7 +16960,7 @@
         <v>5.5331302979633422E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -17072,153 +17088,153 @@
         <v>24373340499.070705</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="24"/>
+      <c r="AH26" s="24"/>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="24"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="25"/>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="24"/>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="25"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="25"/>
-      <c r="AG29" s="25"/>
-      <c r="AH29" s="25"/>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="24"/>
     </row>
-    <row r="33" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -17250,373 +17266,373 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="4"/>
     </row>
-    <row r="39" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="AK39" s="27" t="s">
+    <row r="39" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AK39" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AL39" s="27"/>
-      <c r="AM39" s="27"/>
-      <c r="AN39" s="27"/>
-      <c r="AO39" s="27"/>
-      <c r="AP39" s="27"/>
-      <c r="AQ39" s="27"/>
+      <c r="AL39" s="26"/>
+      <c r="AM39" s="26"/>
+      <c r="AN39" s="26"/>
+      <c r="AO39" s="26"/>
+      <c r="AP39" s="26"/>
+      <c r="AQ39" s="26"/>
     </row>
-    <row r="40" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="AK40" s="27"/>
-      <c r="AL40" s="27"/>
-      <c r="AM40" s="27"/>
-      <c r="AN40" s="27"/>
-      <c r="AO40" s="27"/>
-      <c r="AP40" s="27"/>
-      <c r="AQ40" s="27"/>
+    <row r="40" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="26"/>
+      <c r="AN40" s="26"/>
+      <c r="AO40" s="26"/>
+      <c r="AP40" s="26"/>
+      <c r="AQ40" s="26"/>
     </row>
-    <row r="41" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="AK41" s="27"/>
-      <c r="AL41" s="27"/>
-      <c r="AM41" s="27"/>
-      <c r="AN41" s="27"/>
-      <c r="AO41" s="27"/>
-      <c r="AP41" s="27"/>
-      <c r="AQ41" s="27"/>
+    <row r="41" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AK41" s="26"/>
+      <c r="AL41" s="26"/>
+      <c r="AM41" s="26"/>
+      <c r="AN41" s="26"/>
+      <c r="AO41" s="26"/>
+      <c r="AP41" s="26"/>
+      <c r="AQ41" s="26"/>
     </row>
-    <row r="42" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="AK42" s="27"/>
-      <c r="AL42" s="27"/>
-      <c r="AM42" s="27"/>
-      <c r="AN42" s="27"/>
-      <c r="AO42" s="27"/>
-      <c r="AP42" s="27"/>
-      <c r="AQ42" s="27"/>
+    <row r="42" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AK42" s="26"/>
+      <c r="AL42" s="26"/>
+      <c r="AM42" s="26"/>
+      <c r="AN42" s="26"/>
+      <c r="AO42" s="26"/>
+      <c r="AP42" s="26"/>
+      <c r="AQ42" s="26"/>
     </row>
-    <row r="43" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="AK43" s="27"/>
-      <c r="AL43" s="27"/>
-      <c r="AM43" s="27"/>
-      <c r="AN43" s="27"/>
-      <c r="AO43" s="27"/>
-      <c r="AP43" s="27"/>
-      <c r="AQ43" s="27"/>
+    <row r="43" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AK43" s="26"/>
+      <c r="AL43" s="26"/>
+      <c r="AM43" s="26"/>
+      <c r="AN43" s="26"/>
+      <c r="AO43" s="26"/>
+      <c r="AP43" s="26"/>
+      <c r="AQ43" s="26"/>
     </row>
-    <row r="44" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="AK44" s="27"/>
-      <c r="AL44" s="27"/>
-      <c r="AM44" s="27"/>
-      <c r="AN44" s="27"/>
-      <c r="AO44" s="27"/>
-      <c r="AP44" s="27"/>
-      <c r="AQ44" s="27"/>
+    <row r="44" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AK44" s="26"/>
+      <c r="AL44" s="26"/>
+      <c r="AM44" s="26"/>
+      <c r="AN44" s="26"/>
+      <c r="AO44" s="26"/>
+      <c r="AP44" s="26"/>
+      <c r="AQ44" s="26"/>
     </row>
-    <row r="45" spans="2:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG45" s="26" t="s">
+    <row r="45" spans="2:43" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG45" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AK45" s="27"/>
-      <c r="AL45" s="27"/>
-      <c r="AM45" s="27"/>
-      <c r="AN45" s="27"/>
-      <c r="AO45" s="27"/>
-      <c r="AP45" s="27"/>
-      <c r="AQ45" s="27"/>
+      <c r="AH45" s="25"/>
+      <c r="AI45" s="25"/>
+      <c r="AK45" s="26"/>
+      <c r="AL45" s="26"/>
+      <c r="AM45" s="26"/>
+      <c r="AN45" s="26"/>
+      <c r="AO45" s="26"/>
+      <c r="AP45" s="26"/>
+      <c r="AQ45" s="26"/>
     </row>
-    <row r="46" spans="2:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG46" s="26"/>
-      <c r="AH46" s="26"/>
-      <c r="AI46" s="26"/>
-      <c r="AK46" s="27"/>
-      <c r="AL46" s="27"/>
-      <c r="AM46" s="27"/>
-      <c r="AN46" s="27"/>
-      <c r="AO46" s="27"/>
-      <c r="AP46" s="27"/>
-      <c r="AQ46" s="27"/>
+    <row r="46" spans="2:43" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG46" s="25"/>
+      <c r="AH46" s="25"/>
+      <c r="AI46" s="25"/>
+      <c r="AK46" s="26"/>
+      <c r="AL46" s="26"/>
+      <c r="AM46" s="26"/>
+      <c r="AN46" s="26"/>
+      <c r="AO46" s="26"/>
+      <c r="AP46" s="26"/>
+      <c r="AQ46" s="26"/>
     </row>
-    <row r="47" spans="2:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26"/>
-      <c r="AI47" s="26"/>
-      <c r="AK47" s="27"/>
-      <c r="AL47" s="27"/>
-      <c r="AM47" s="27"/>
-      <c r="AN47" s="27"/>
-      <c r="AO47" s="27"/>
-      <c r="AP47" s="27"/>
-      <c r="AQ47" s="27"/>
+    <row r="47" spans="2:43" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="25"/>
+      <c r="AI47" s="25"/>
+      <c r="AK47" s="26"/>
+      <c r="AL47" s="26"/>
+      <c r="AM47" s="26"/>
+      <c r="AN47" s="26"/>
+      <c r="AO47" s="26"/>
+      <c r="AP47" s="26"/>
+      <c r="AQ47" s="26"/>
     </row>
-    <row r="48" spans="2:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG48" s="26"/>
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
+    <row r="48" spans="2:43" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG48" s="25"/>
+      <c r="AH48" s="25"/>
+      <c r="AI48" s="25"/>
     </row>
-    <row r="49" spans="1:42" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG49" s="26"/>
-      <c r="AH49" s="26"/>
-      <c r="AI49" s="26"/>
+    <row r="49" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG49" s="25"/>
+      <c r="AH49" s="25"/>
+      <c r="AI49" s="25"/>
     </row>
-    <row r="50" spans="1:42" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="26"/>
-      <c r="AI50" s="26"/>
+    <row r="50" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG50" s="25"/>
+      <c r="AH50" s="25"/>
+      <c r="AI50" s="25"/>
     </row>
-    <row r="51" spans="1:42" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="26"/>
-      <c r="AI51" s="26"/>
+    <row r="51" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG51" s="25"/>
+      <c r="AH51" s="25"/>
+      <c r="AI51" s="25"/>
     </row>
-    <row r="52" spans="1:42" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG52" s="26"/>
-      <c r="AH52" s="26"/>
-      <c r="AI52" s="26"/>
+    <row r="52" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG52" s="25"/>
+      <c r="AH52" s="25"/>
+      <c r="AI52" s="25"/>
     </row>
-    <row r="53" spans="1:42" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG53" s="26"/>
-      <c r="AH53" s="26"/>
-      <c r="AI53" s="26"/>
+    <row r="53" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG53" s="25"/>
+      <c r="AH53" s="25"/>
+      <c r="AI53" s="25"/>
     </row>
-    <row r="54" spans="1:42" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG54" s="26"/>
-      <c r="AH54" s="26"/>
-      <c r="AI54" s="26"/>
+    <row r="54" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG54" s="25"/>
+      <c r="AH54" s="25"/>
+      <c r="AI54" s="25"/>
     </row>
-    <row r="55" spans="1:42" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG55" s="26"/>
-      <c r="AH55" s="26"/>
-      <c r="AI55" s="26"/>
+    <row r="55" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG55" s="25"/>
+      <c r="AH55" s="25"/>
+      <c r="AI55" s="25"/>
     </row>
-    <row r="56" spans="1:42" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG56" s="26"/>
-      <c r="AH56" s="26"/>
-      <c r="AI56" s="26"/>
+    <row r="56" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG56" s="25"/>
+      <c r="AH56" s="25"/>
+      <c r="AI56" s="25"/>
     </row>
-    <row r="57" spans="1:42" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG57" s="26"/>
-      <c r="AH57" s="26"/>
-      <c r="AI57" s="26"/>
+    <row r="57" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG57" s="25"/>
+      <c r="AH57" s="25"/>
+      <c r="AI57" s="25"/>
     </row>
-    <row r="58" spans="1:42" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG58" s="26"/>
-      <c r="AH58" s="26"/>
-      <c r="AI58" s="26"/>
+    <row r="58" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG58" s="25"/>
+      <c r="AH58" s="25"/>
+      <c r="AI58" s="25"/>
     </row>
-    <row r="59" spans="1:42" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG59" s="26"/>
-      <c r="AH59" s="26"/>
-      <c r="AI59" s="26"/>
-      <c r="AJ59" s="27" t="s">
+    <row r="59" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG59" s="25"/>
+      <c r="AH59" s="25"/>
+      <c r="AI59" s="25"/>
+      <c r="AJ59" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AK59" s="27"/>
-      <c r="AL59" s="27"/>
-      <c r="AM59" s="27"/>
-      <c r="AN59" s="27"/>
-      <c r="AO59" s="27"/>
-      <c r="AP59" s="27"/>
+      <c r="AK59" s="26"/>
+      <c r="AL59" s="26"/>
+      <c r="AM59" s="26"/>
+      <c r="AN59" s="26"/>
+      <c r="AO59" s="26"/>
+      <c r="AP59" s="26"/>
     </row>
-    <row r="60" spans="1:42" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG60" s="26"/>
-      <c r="AH60" s="26"/>
-      <c r="AI60" s="26"/>
-      <c r="AJ60" s="27"/>
-      <c r="AK60" s="27"/>
-      <c r="AL60" s="27"/>
-      <c r="AM60" s="27"/>
-      <c r="AN60" s="27"/>
-      <c r="AO60" s="27"/>
-      <c r="AP60" s="27"/>
+    <row r="60" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG60" s="25"/>
+      <c r="AH60" s="25"/>
+      <c r="AI60" s="25"/>
+      <c r="AJ60" s="26"/>
+      <c r="AK60" s="26"/>
+      <c r="AL60" s="26"/>
+      <c r="AM60" s="26"/>
+      <c r="AN60" s="26"/>
+      <c r="AO60" s="26"/>
+      <c r="AP60" s="26"/>
     </row>
-    <row r="61" spans="1:42" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AJ61" s="27"/>
-      <c r="AK61" s="27"/>
-      <c r="AL61" s="27"/>
-      <c r="AM61" s="27"/>
-      <c r="AN61" s="27"/>
-      <c r="AO61" s="27"/>
-      <c r="AP61" s="27"/>
+    <row r="61" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ61" s="26"/>
+      <c r="AK61" s="26"/>
+      <c r="AL61" s="26"/>
+      <c r="AM61" s="26"/>
+      <c r="AN61" s="26"/>
+      <c r="AO61" s="26"/>
+      <c r="AP61" s="26"/>
     </row>
-    <row r="62" spans="1:42" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AJ62" s="27"/>
-      <c r="AK62" s="27"/>
-      <c r="AL62" s="27"/>
-      <c r="AM62" s="27"/>
-      <c r="AN62" s="27"/>
-      <c r="AO62" s="27"/>
-      <c r="AP62" s="27"/>
+    <row r="62" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ62" s="26"/>
+      <c r="AK62" s="26"/>
+      <c r="AL62" s="26"/>
+      <c r="AM62" s="26"/>
+      <c r="AN62" s="26"/>
+      <c r="AO62" s="26"/>
+      <c r="AP62" s="26"/>
     </row>
-    <row r="63" spans="1:42" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AJ63" s="27"/>
-      <c r="AK63" s="27"/>
-      <c r="AL63" s="27"/>
-      <c r="AM63" s="27"/>
-      <c r="AN63" s="27"/>
-      <c r="AO63" s="27"/>
-      <c r="AP63" s="27"/>
+    <row r="63" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ63" s="26"/>
+      <c r="AK63" s="26"/>
+      <c r="AL63" s="26"/>
+      <c r="AM63" s="26"/>
+      <c r="AN63" s="26"/>
+      <c r="AO63" s="26"/>
+      <c r="AP63" s="26"/>
     </row>
-    <row r="64" spans="1:42" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="24" t="s">
+    <row r="64" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="24"/>
-      <c r="U64" s="24"/>
-      <c r="V64" s="24"/>
-      <c r="W64" s="24"/>
-      <c r="X64" s="24"/>
-      <c r="Y64" s="24"/>
-      <c r="Z64" s="24"/>
-      <c r="AA64" s="24"/>
-      <c r="AB64" s="24"/>
-      <c r="AC64" s="24"/>
-      <c r="AD64" s="24"/>
-      <c r="AE64" s="24"/>
-      <c r="AJ64" s="27"/>
-      <c r="AK64" s="27"/>
-      <c r="AL64" s="27"/>
-      <c r="AM64" s="27"/>
-      <c r="AN64" s="27"/>
-      <c r="AO64" s="27"/>
-      <c r="AP64" s="27"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="23"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="23"/>
+      <c r="Z64" s="23"/>
+      <c r="AA64" s="23"/>
+      <c r="AB64" s="23"/>
+      <c r="AC64" s="23"/>
+      <c r="AD64" s="23"/>
+      <c r="AE64" s="23"/>
+      <c r="AJ64" s="26"/>
+      <c r="AK64" s="26"/>
+      <c r="AL64" s="26"/>
+      <c r="AM64" s="26"/>
+      <c r="AN64" s="26"/>
+      <c r="AO64" s="26"/>
+      <c r="AP64" s="26"/>
     </row>
-    <row r="65" spans="1:46" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="24"/>
-      <c r="T65" s="24"/>
-      <c r="U65" s="24"/>
-      <c r="V65" s="24"/>
-      <c r="W65" s="24"/>
-      <c r="X65" s="24"/>
-      <c r="Y65" s="24"/>
-      <c r="Z65" s="24"/>
-      <c r="AA65" s="24"/>
-      <c r="AB65" s="24"/>
-      <c r="AC65" s="24"/>
-      <c r="AD65" s="24"/>
-      <c r="AE65" s="24"/>
-      <c r="AJ65" s="27"/>
-      <c r="AK65" s="27"/>
-      <c r="AL65" s="27"/>
-      <c r="AM65" s="27"/>
-      <c r="AN65" s="27"/>
-      <c r="AO65" s="27"/>
-      <c r="AP65" s="27"/>
+    <row r="65" spans="1:46" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="23"/>
+      <c r="S65" s="23"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="23"/>
+      <c r="W65" s="23"/>
+      <c r="X65" s="23"/>
+      <c r="Y65" s="23"/>
+      <c r="Z65" s="23"/>
+      <c r="AA65" s="23"/>
+      <c r="AB65" s="23"/>
+      <c r="AC65" s="23"/>
+      <c r="AD65" s="23"/>
+      <c r="AE65" s="23"/>
+      <c r="AJ65" s="26"/>
+      <c r="AK65" s="26"/>
+      <c r="AL65" s="26"/>
+      <c r="AM65" s="26"/>
+      <c r="AN65" s="26"/>
+      <c r="AO65" s="26"/>
+      <c r="AP65" s="26"/>
     </row>
-    <row r="66" spans="1:46" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="24"/>
-      <c r="W66" s="24"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="24"/>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="24"/>
-      <c r="AE66" s="24"/>
-      <c r="AJ66" s="27"/>
-      <c r="AK66" s="27"/>
-      <c r="AL66" s="27"/>
-      <c r="AM66" s="27"/>
-      <c r="AN66" s="27"/>
-      <c r="AO66" s="27"/>
-      <c r="AP66" s="27"/>
+    <row r="66" spans="1:46" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="23"/>
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="23"/>
+      <c r="AD66" s="23"/>
+      <c r="AE66" s="23"/>
+      <c r="AJ66" s="26"/>
+      <c r="AK66" s="26"/>
+      <c r="AL66" s="26"/>
+      <c r="AM66" s="26"/>
+      <c r="AN66" s="26"/>
+      <c r="AO66" s="26"/>
+      <c r="AP66" s="26"/>
     </row>
-    <row r="67" spans="1:46" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="24"/>
-      <c r="T67" s="24"/>
-      <c r="U67" s="24"/>
-      <c r="V67" s="24"/>
-      <c r="W67" s="24"/>
-      <c r="X67" s="24"/>
-      <c r="Y67" s="24"/>
-      <c r="Z67" s="24"/>
-      <c r="AA67" s="24"/>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="24"/>
-      <c r="AD67" s="24"/>
-      <c r="AE67" s="24"/>
-      <c r="AJ67" s="27"/>
-      <c r="AK67" s="27"/>
-      <c r="AL67" s="27"/>
-      <c r="AM67" s="27"/>
-      <c r="AN67" s="27"/>
-      <c r="AO67" s="27"/>
-      <c r="AP67" s="27"/>
+    <row r="67" spans="1:46" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="23"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="23"/>
+      <c r="W67" s="23"/>
+      <c r="X67" s="23"/>
+      <c r="Y67" s="23"/>
+      <c r="Z67" s="23"/>
+      <c r="AA67" s="23"/>
+      <c r="AB67" s="23"/>
+      <c r="AC67" s="23"/>
+      <c r="AD67" s="23"/>
+      <c r="AE67" s="23"/>
+      <c r="AJ67" s="26"/>
+      <c r="AK67" s="26"/>
+      <c r="AL67" s="26"/>
+      <c r="AM67" s="26"/>
+      <c r="AN67" s="26"/>
+      <c r="AO67" s="26"/>
+      <c r="AP67" s="26"/>
     </row>
-    <row r="68" spans="1:46" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:46" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:46" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:46" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:46" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>17</v>
       </c>
@@ -17732,7 +17748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:46" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>385</v>
       </c>
@@ -17850,7 +17866,7 @@
         <v>0.43523499380827435</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>382</v>
       </c>
@@ -17968,7 +17984,7 @@
         <v>0.14720744732289767</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>133</v>
       </c>
@@ -18086,7 +18102,7 @@
         <v>0.11101801385506301</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>226</v>
       </c>
@@ -18204,7 +18220,7 @@
         <v>6.1304704704591907E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>147</v>
       </c>
@@ -18322,7 +18338,7 @@
         <v>3.9469035609488091E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>336</v>
       </c>
@@ -18440,7 +18456,7 @@
         <v>3.1108931164971387E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>101</v>
       </c>
@@ -18557,13 +18573,13 @@
       <c r="AP77" s="6">
         <v>2.0953770468987304E-2</v>
       </c>
-      <c r="AR77" s="26" t="s">
+      <c r="AR77" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AS77" s="26"/>
-      <c r="AT77" s="26"/>
+      <c r="AS77" s="25"/>
+      <c r="AT77" s="25"/>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>331</v>
       </c>
@@ -18680,11 +18696,11 @@
       <c r="AP78" s="6">
         <v>1.8730915473297825E-2</v>
       </c>
-      <c r="AR78" s="26"/>
-      <c r="AS78" s="26"/>
-      <c r="AT78" s="26"/>
+      <c r="AR78" s="25"/>
+      <c r="AS78" s="25"/>
+      <c r="AT78" s="25"/>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>231</v>
       </c>
@@ -18801,11 +18817,11 @@
       <c r="AP79" s="6">
         <v>1.8034697123554301E-2</v>
       </c>
-      <c r="AR79" s="26"/>
-      <c r="AS79" s="26"/>
-      <c r="AT79" s="26"/>
+      <c r="AR79" s="25"/>
+      <c r="AS79" s="25"/>
+      <c r="AT79" s="25"/>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>323</v>
       </c>
@@ -18922,11 +18938,11 @@
       <c r="AP80" s="6">
         <v>1.3622273211694517E-2</v>
       </c>
-      <c r="AR80" s="26"/>
-      <c r="AS80" s="26"/>
-      <c r="AT80" s="26"/>
+      <c r="AR80" s="25"/>
+      <c r="AS80" s="25"/>
+      <c r="AT80" s="25"/>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>284</v>
       </c>
@@ -19043,11 +19059,11 @@
       <c r="AP81" s="6">
         <v>1.3254123440458109E-2</v>
       </c>
-      <c r="AR81" s="26"/>
-      <c r="AS81" s="26"/>
-      <c r="AT81" s="26"/>
+      <c r="AR81" s="25"/>
+      <c r="AS81" s="25"/>
+      <c r="AT81" s="25"/>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>342</v>
       </c>
@@ -19164,11 +19180,11 @@
       <c r="AP82" s="6">
         <v>1.2337202700527032E-2</v>
       </c>
-      <c r="AR82" s="26"/>
-      <c r="AS82" s="26"/>
-      <c r="AT82" s="26"/>
+      <c r="AR82" s="25"/>
+      <c r="AS82" s="25"/>
+      <c r="AT82" s="25"/>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>216</v>
       </c>
@@ -19285,11 +19301,11 @@
       <c r="AP83" s="6">
         <v>1.2253223743088763E-2</v>
       </c>
-      <c r="AR83" s="26"/>
-      <c r="AS83" s="26"/>
-      <c r="AT83" s="26"/>
+      <c r="AR83" s="25"/>
+      <c r="AS83" s="25"/>
+      <c r="AT83" s="25"/>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>213</v>
       </c>
@@ -19406,11 +19422,11 @@
       <c r="AP84" s="6">
         <v>1.1130105984050204E-2</v>
       </c>
-      <c r="AR84" s="26"/>
-      <c r="AS84" s="26"/>
-      <c r="AT84" s="26"/>
+      <c r="AR84" s="25"/>
+      <c r="AS84" s="25"/>
+      <c r="AT84" s="25"/>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>219</v>
       </c>
@@ -19527,11 +19543,11 @@
       <c r="AP85" s="6">
         <v>1.0107434966552606E-2</v>
       </c>
-      <c r="AR85" s="26"/>
-      <c r="AS85" s="26"/>
-      <c r="AT85" s="26"/>
+      <c r="AR85" s="25"/>
+      <c r="AS85" s="25"/>
+      <c r="AT85" s="25"/>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>183</v>
       </c>
@@ -19648,11 +19664,11 @@
       <c r="AP86" s="6">
         <v>9.9924776827077094E-3</v>
       </c>
-      <c r="AR86" s="26"/>
-      <c r="AS86" s="26"/>
-      <c r="AT86" s="26"/>
+      <c r="AR86" s="25"/>
+      <c r="AS86" s="25"/>
+      <c r="AT86" s="25"/>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>296</v>
       </c>
@@ -19770,7 +19786,7 @@
         <v>9.2142314664525674E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>282</v>
       </c>
@@ -19888,7 +19904,7 @@
         <v>8.6355511812188802E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>258</v>
       </c>
@@ -20006,7 +20022,7 @@
         <v>8.3964856645646433E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>326</v>
       </c>
@@ -20124,10 +20140,10 @@
         <v>7.9943804275589194E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AJ91" s="6"/>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>18</v>
       </c>
@@ -20229,174 +20245,174 @@
         <v>2.2612911983929129E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="AK93" s="27" t="s">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AK93" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AL93" s="27"/>
-      <c r="AM93" s="27"/>
-      <c r="AN93" s="27"/>
-      <c r="AO93" s="27"/>
-      <c r="AP93" s="27"/>
-      <c r="AQ93" s="27"/>
+      <c r="AL93" s="26"/>
+      <c r="AM93" s="26"/>
+      <c r="AN93" s="26"/>
+      <c r="AO93" s="26"/>
+      <c r="AP93" s="26"/>
+      <c r="AQ93" s="26"/>
     </row>
-    <row r="94" spans="1:46" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG94" s="28" t="s">
+    <row r="94" spans="1:46" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG94" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AH94" s="28"/>
-      <c r="AI94" s="28"/>
-      <c r="AJ94" s="28"/>
-      <c r="AK94" s="27"/>
-      <c r="AL94" s="27"/>
-      <c r="AM94" s="27"/>
-      <c r="AN94" s="27"/>
-      <c r="AO94" s="27"/>
-      <c r="AP94" s="27"/>
-      <c r="AQ94" s="27"/>
+      <c r="AH94" s="27"/>
+      <c r="AI94" s="27"/>
+      <c r="AJ94" s="27"/>
+      <c r="AK94" s="26"/>
+      <c r="AL94" s="26"/>
+      <c r="AM94" s="26"/>
+      <c r="AN94" s="26"/>
+      <c r="AO94" s="26"/>
+      <c r="AP94" s="26"/>
+      <c r="AQ94" s="26"/>
     </row>
-    <row r="95" spans="1:46" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG95" s="28"/>
-      <c r="AH95" s="28"/>
-      <c r="AI95" s="28"/>
-      <c r="AJ95" s="28"/>
-      <c r="AK95" s="27"/>
-      <c r="AL95" s="27"/>
-      <c r="AM95" s="27"/>
-      <c r="AN95" s="27"/>
-      <c r="AO95" s="27"/>
-      <c r="AP95" s="27"/>
-      <c r="AQ95" s="27"/>
+    <row r="95" spans="1:46" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG95" s="27"/>
+      <c r="AH95" s="27"/>
+      <c r="AI95" s="27"/>
+      <c r="AJ95" s="27"/>
+      <c r="AK95" s="26"/>
+      <c r="AL95" s="26"/>
+      <c r="AM95" s="26"/>
+      <c r="AN95" s="26"/>
+      <c r="AO95" s="26"/>
+      <c r="AP95" s="26"/>
+      <c r="AQ95" s="26"/>
     </row>
-    <row r="96" spans="1:46" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG96" s="28"/>
-      <c r="AH96" s="28"/>
-      <c r="AI96" s="28"/>
-      <c r="AJ96" s="28"/>
-      <c r="AK96" s="27"/>
-      <c r="AL96" s="27"/>
-      <c r="AM96" s="27"/>
-      <c r="AN96" s="27"/>
-      <c r="AO96" s="27"/>
-      <c r="AP96" s="27"/>
-      <c r="AQ96" s="27"/>
+    <row r="96" spans="1:46" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG96" s="27"/>
+      <c r="AH96" s="27"/>
+      <c r="AI96" s="27"/>
+      <c r="AJ96" s="27"/>
+      <c r="AK96" s="26"/>
+      <c r="AL96" s="26"/>
+      <c r="AM96" s="26"/>
+      <c r="AN96" s="26"/>
+      <c r="AO96" s="26"/>
+      <c r="AP96" s="26"/>
+      <c r="AQ96" s="26"/>
     </row>
-    <row r="97" spans="19:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG97" s="28"/>
-      <c r="AH97" s="28"/>
-      <c r="AI97" s="28"/>
-      <c r="AJ97" s="28"/>
-      <c r="AK97" s="27"/>
-      <c r="AL97" s="27"/>
-      <c r="AM97" s="27"/>
-      <c r="AN97" s="27"/>
-      <c r="AO97" s="27"/>
-      <c r="AP97" s="27"/>
-      <c r="AQ97" s="27"/>
+    <row r="97" spans="19:43" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG97" s="27"/>
+      <c r="AH97" s="27"/>
+      <c r="AI97" s="27"/>
+      <c r="AJ97" s="27"/>
+      <c r="AK97" s="26"/>
+      <c r="AL97" s="26"/>
+      <c r="AM97" s="26"/>
+      <c r="AN97" s="26"/>
+      <c r="AO97" s="26"/>
+      <c r="AP97" s="26"/>
+      <c r="AQ97" s="26"/>
     </row>
-    <row r="98" spans="19:43" x14ac:dyDescent="0.2">
-      <c r="AK98" s="27"/>
-      <c r="AL98" s="27"/>
-      <c r="AM98" s="27"/>
-      <c r="AN98" s="27"/>
-      <c r="AO98" s="27"/>
-      <c r="AP98" s="27"/>
-      <c r="AQ98" s="27"/>
+    <row r="98" spans="19:43" x14ac:dyDescent="0.25">
+      <c r="AK98" s="26"/>
+      <c r="AL98" s="26"/>
+      <c r="AM98" s="26"/>
+      <c r="AN98" s="26"/>
+      <c r="AO98" s="26"/>
+      <c r="AP98" s="26"/>
+      <c r="AQ98" s="26"/>
     </row>
-    <row r="99" spans="19:43" x14ac:dyDescent="0.2">
-      <c r="AK99" s="27"/>
-      <c r="AL99" s="27"/>
-      <c r="AM99" s="27"/>
-      <c r="AN99" s="27"/>
-      <c r="AO99" s="27"/>
-      <c r="AP99" s="27"/>
-      <c r="AQ99" s="27"/>
+    <row r="99" spans="19:43" x14ac:dyDescent="0.25">
+      <c r="AK99" s="26"/>
+      <c r="AL99" s="26"/>
+      <c r="AM99" s="26"/>
+      <c r="AN99" s="26"/>
+      <c r="AO99" s="26"/>
+      <c r="AP99" s="26"/>
+      <c r="AQ99" s="26"/>
     </row>
-    <row r="100" spans="19:43" x14ac:dyDescent="0.2">
-      <c r="S100" s="24" t="s">
+    <row r="100" spans="19:43" x14ac:dyDescent="0.25">
+      <c r="S100" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="T100" s="24"/>
-      <c r="U100" s="24"/>
-      <c r="V100" s="24"/>
-      <c r="W100" s="24"/>
-      <c r="X100" s="24"/>
-      <c r="Y100" s="24"/>
-      <c r="Z100" s="24"/>
-      <c r="AA100" s="24"/>
-      <c r="AB100" s="24"/>
-      <c r="AC100" s="24"/>
-      <c r="AD100" s="24"/>
-      <c r="AE100" s="24"/>
-      <c r="AF100" s="24"/>
-      <c r="AG100" s="24"/>
-      <c r="AK100" s="27"/>
-      <c r="AL100" s="27"/>
-      <c r="AM100" s="27"/>
-      <c r="AN100" s="27"/>
-      <c r="AO100" s="27"/>
-      <c r="AP100" s="27"/>
-      <c r="AQ100" s="27"/>
+      <c r="T100" s="23"/>
+      <c r="U100" s="23"/>
+      <c r="V100" s="23"/>
+      <c r="W100" s="23"/>
+      <c r="X100" s="23"/>
+      <c r="Y100" s="23"/>
+      <c r="Z100" s="23"/>
+      <c r="AA100" s="23"/>
+      <c r="AB100" s="23"/>
+      <c r="AC100" s="23"/>
+      <c r="AD100" s="23"/>
+      <c r="AE100" s="23"/>
+      <c r="AF100" s="23"/>
+      <c r="AG100" s="23"/>
+      <c r="AK100" s="26"/>
+      <c r="AL100" s="26"/>
+      <c r="AM100" s="26"/>
+      <c r="AN100" s="26"/>
+      <c r="AO100" s="26"/>
+      <c r="AP100" s="26"/>
+      <c r="AQ100" s="26"/>
     </row>
-    <row r="101" spans="19:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S101" s="24"/>
-      <c r="T101" s="24"/>
-      <c r="U101" s="24"/>
-      <c r="V101" s="24"/>
-      <c r="W101" s="24"/>
-      <c r="X101" s="24"/>
-      <c r="Y101" s="24"/>
-      <c r="Z101" s="24"/>
-      <c r="AA101" s="24"/>
-      <c r="AB101" s="24"/>
-      <c r="AC101" s="24"/>
-      <c r="AD101" s="24"/>
-      <c r="AE101" s="24"/>
-      <c r="AF101" s="24"/>
-      <c r="AG101" s="24"/>
-      <c r="AK101" s="27"/>
-      <c r="AL101" s="27"/>
-      <c r="AM101" s="27"/>
-      <c r="AN101" s="27"/>
-      <c r="AO101" s="27"/>
-      <c r="AP101" s="27"/>
-      <c r="AQ101" s="27"/>
+    <row r="101" spans="19:43" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S101" s="23"/>
+      <c r="T101" s="23"/>
+      <c r="U101" s="23"/>
+      <c r="V101" s="23"/>
+      <c r="W101" s="23"/>
+      <c r="X101" s="23"/>
+      <c r="Y101" s="23"/>
+      <c r="Z101" s="23"/>
+      <c r="AA101" s="23"/>
+      <c r="AB101" s="23"/>
+      <c r="AC101" s="23"/>
+      <c r="AD101" s="23"/>
+      <c r="AE101" s="23"/>
+      <c r="AF101" s="23"/>
+      <c r="AG101" s="23"/>
+      <c r="AK101" s="26"/>
+      <c r="AL101" s="26"/>
+      <c r="AM101" s="26"/>
+      <c r="AN101" s="26"/>
+      <c r="AO101" s="26"/>
+      <c r="AP101" s="26"/>
+      <c r="AQ101" s="26"/>
     </row>
-    <row r="102" spans="19:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S102" s="24"/>
-      <c r="T102" s="24"/>
-      <c r="U102" s="24"/>
-      <c r="V102" s="24"/>
-      <c r="W102" s="24"/>
-      <c r="X102" s="24"/>
-      <c r="Y102" s="24"/>
-      <c r="Z102" s="24"/>
-      <c r="AA102" s="24"/>
-      <c r="AB102" s="24"/>
-      <c r="AC102" s="24"/>
-      <c r="AD102" s="24"/>
-      <c r="AE102" s="24"/>
-      <c r="AF102" s="24"/>
-      <c r="AG102" s="24"/>
+    <row r="102" spans="19:43" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S102" s="23"/>
+      <c r="T102" s="23"/>
+      <c r="U102" s="23"/>
+      <c r="V102" s="23"/>
+      <c r="W102" s="23"/>
+      <c r="X102" s="23"/>
+      <c r="Y102" s="23"/>
+      <c r="Z102" s="23"/>
+      <c r="AA102" s="23"/>
+      <c r="AB102" s="23"/>
+      <c r="AC102" s="23"/>
+      <c r="AD102" s="23"/>
+      <c r="AE102" s="23"/>
+      <c r="AF102" s="23"/>
+      <c r="AG102" s="23"/>
     </row>
-    <row r="103" spans="19:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S103" s="24"/>
-      <c r="T103" s="24"/>
-      <c r="U103" s="24"/>
-      <c r="V103" s="24"/>
-      <c r="W103" s="24"/>
-      <c r="X103" s="24"/>
-      <c r="Y103" s="24"/>
-      <c r="Z103" s="24"/>
-      <c r="AA103" s="24"/>
-      <c r="AB103" s="24"/>
-      <c r="AC103" s="24"/>
-      <c r="AD103" s="24"/>
-      <c r="AE103" s="24"/>
-      <c r="AF103" s="24"/>
-      <c r="AG103" s="24"/>
+    <row r="103" spans="19:43" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S103" s="23"/>
+      <c r="T103" s="23"/>
+      <c r="U103" s="23"/>
+      <c r="V103" s="23"/>
+      <c r="W103" s="23"/>
+      <c r="X103" s="23"/>
+      <c r="Y103" s="23"/>
+      <c r="Z103" s="23"/>
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="23"/>
+      <c r="AC103" s="23"/>
+      <c r="AD103" s="23"/>
+      <c r="AE103" s="23"/>
+      <c r="AF103" s="23"/>
+      <c r="AG103" s="23"/>
     </row>
-    <row r="104" spans="19:43" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="19:43" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S104" s="5"/>
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
@@ -20413,7 +20429,7 @@
       <c r="AF104" s="5"/>
       <c r="AG104" s="5"/>
     </row>
-    <row r="105" spans="19:43" x14ac:dyDescent="0.2">
+    <row r="105" spans="19:43" x14ac:dyDescent="0.25">
       <c r="S105" s="2" t="s">
         <v>17</v>
       </c>
@@ -20463,7 +20479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="19:43" x14ac:dyDescent="0.2">
+    <row r="106" spans="19:43" x14ac:dyDescent="0.25">
       <c r="S106" s="2" t="s">
         <v>326</v>
       </c>
@@ -20513,7 +20529,7 @@
         <v>194849756.24000001</v>
       </c>
     </row>
-    <row r="107" spans="19:43" x14ac:dyDescent="0.2">
+    <row r="107" spans="19:43" x14ac:dyDescent="0.25">
       <c r="S107" s="2" t="s">
         <v>258</v>
       </c>
@@ -20563,7 +20579,7 @@
         <v>204650404.09800002</v>
       </c>
     </row>
-    <row r="108" spans="19:43" x14ac:dyDescent="0.2">
+    <row r="108" spans="19:43" x14ac:dyDescent="0.25">
       <c r="S108" s="2" t="s">
         <v>282</v>
       </c>
@@ -20613,7 +20629,7 @@
         <v>210477229.33699998</v>
       </c>
     </row>
-    <row r="109" spans="19:43" x14ac:dyDescent="0.2">
+    <row r="109" spans="19:43" x14ac:dyDescent="0.25">
       <c r="S109" s="2" t="s">
         <v>296</v>
       </c>
@@ -20663,7 +20679,7 @@
         <v>224581600.96910003</v>
       </c>
     </row>
-    <row r="110" spans="19:43" x14ac:dyDescent="0.2">
+    <row r="110" spans="19:43" x14ac:dyDescent="0.25">
       <c r="S110" s="2" t="s">
         <v>183</v>
       </c>
@@ -20713,7 +20729,7 @@
         <v>243550060.99000001</v>
       </c>
     </row>
-    <row r="111" spans="19:43" x14ac:dyDescent="0.2">
+    <row r="111" spans="19:43" x14ac:dyDescent="0.25">
       <c r="S111" s="2" t="s">
         <v>219</v>
       </c>
@@ -20763,7 +20779,7 @@
         <v>246351954.01199999</v>
       </c>
     </row>
-    <row r="112" spans="19:43" x14ac:dyDescent="0.2">
+    <row r="112" spans="19:43" x14ac:dyDescent="0.25">
       <c r="S112" s="2" t="s">
         <v>213</v>
       </c>
@@ -20813,7 +20829,7 @@
         <v>271277862.94000006</v>
       </c>
     </row>
-    <row r="113" spans="19:34" x14ac:dyDescent="0.2">
+    <row r="113" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S113" s="2" t="s">
         <v>216</v>
       </c>
@@ -20863,7 +20879,7 @@
         <v>298651994.50160009</v>
       </c>
     </row>
-    <row r="114" spans="19:34" x14ac:dyDescent="0.2">
+    <row r="114" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S114" s="2" t="s">
         <v>342</v>
       </c>
@@ -20913,7 +20929,7 @@
         <v>300698842.22600001</v>
       </c>
     </row>
-    <row r="115" spans="19:34" x14ac:dyDescent="0.2">
+    <row r="115" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S115" s="2" t="s">
         <v>284</v>
       </c>
@@ -20963,7 +20979,7 @@
         <v>323047263.63099998</v>
       </c>
     </row>
-    <row r="116" spans="19:34" x14ac:dyDescent="0.2">
+    <row r="116" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S116" s="2" t="s">
         <v>323</v>
       </c>
@@ -21013,7 +21029,7 @@
         <v>332020303.35999995</v>
       </c>
     </row>
-    <row r="117" spans="19:34" x14ac:dyDescent="0.2">
+    <row r="117" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S117" s="2" t="s">
         <v>231</v>
       </c>
@@ -21063,7 +21079,7 @@
         <v>439565813.79000002</v>
       </c>
     </row>
-    <row r="118" spans="19:34" x14ac:dyDescent="0.2">
+    <row r="118" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S118" s="2" t="s">
         <v>331</v>
       </c>
@@ -21113,7 +21129,7 @@
         <v>456534980.69</v>
       </c>
     </row>
-    <row r="119" spans="19:34" x14ac:dyDescent="0.2">
+    <row r="119" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S119" s="2" t="s">
         <v>101</v>
       </c>
@@ -21163,7 +21179,7 @@
         <v>510713382.38</v>
       </c>
     </row>
-    <row r="120" spans="19:34" x14ac:dyDescent="0.2">
+    <row r="120" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S120" s="2" t="s">
         <v>336</v>
       </c>
@@ -21213,7 +21229,7 @@
         <v>758228571.84599996</v>
       </c>
     </row>
-    <row r="121" spans="19:34" x14ac:dyDescent="0.2">
+    <row r="121" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S121" s="2" t="s">
         <v>147</v>
       </c>
@@ -21263,7 +21279,7 @@
         <v>961992244.07999992</v>
       </c>
     </row>
-    <row r="122" spans="19:34" x14ac:dyDescent="0.2">
+    <row r="122" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S122" s="2" t="s">
         <v>226</v>
       </c>
@@ -21313,7 +21329,7 @@
         <v>1494200441.9600003</v>
       </c>
     </row>
-    <row r="123" spans="19:34" x14ac:dyDescent="0.2">
+    <row r="123" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S123" s="2" t="s">
         <v>133</v>
       </c>
@@ -21363,7 +21379,7 @@
         <v>2705879853.2199998</v>
       </c>
     </row>
-    <row r="124" spans="19:34" x14ac:dyDescent="0.2">
+    <row r="124" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S124" s="2" t="s">
         <v>382</v>
       </c>
@@ -21413,7 +21429,7 @@
         <v>3587937237.5999994</v>
       </c>
     </row>
-    <row r="125" spans="19:34" x14ac:dyDescent="0.2">
+    <row r="125" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S125" s="2" t="s">
         <v>385</v>
       </c>
@@ -21492,17 +21508,17 @@
       <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" style="25"/>
-    <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.1640625" customWidth="1"/>
-    <col min="35" max="35" width="12.83203125" customWidth="1"/>
-    <col min="41" max="41" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.77734375" style="24"/>
+    <col min="18" max="18" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.109375" customWidth="1"/>
+    <col min="35" max="35" width="12.77734375" customWidth="1"/>
+    <col min="41" max="41" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -21618,7 +21634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>385</v>
       </c>
@@ -21740,7 +21756,7 @@
         <v>0.47240813835283185</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>382</v>
       </c>
@@ -21862,7 +21878,7 @@
         <v>0.15816486882882622</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -21984,7 +22000,7 @@
         <v>7.2431793021123667E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>226</v>
       </c>
@@ -22106,7 +22122,7 @@
         <v>6.4259488949429122E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -22228,7 +22244,7 @@
         <v>4.153037713011723E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>331</v>
       </c>
@@ -22350,7 +22366,7 @@
         <v>2.3134445452556815E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>231</v>
       </c>
@@ -22472,7 +22488,7 @@
         <v>2.1338450910635666E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>336</v>
       </c>
@@ -22594,7 +22610,7 @@
         <v>1.6253202284241382E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>342</v>
       </c>
@@ -22716,7 +22732,7 @@
         <v>1.5473098317244142E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>284</v>
       </c>
@@ -22838,7 +22854,7 @@
         <v>1.4137681986281455E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>314</v>
       </c>
@@ -22960,7 +22976,7 @@
         <v>1.2866130817180747E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>296</v>
       </c>
@@ -23082,7 +23098,7 @@
         <v>1.1380444034806866E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>326</v>
       </c>
@@ -23204,7 +23220,7 @@
         <v>1.1314954290558361E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>183</v>
       </c>
@@ -23326,7 +23342,7 @@
         <v>1.1311773125837501E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -23448,7 +23464,7 @@
         <v>9.7870404942677972E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>213</v>
       </c>
@@ -23570,7 +23586,7 @@
         <v>9.6122464023023144E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>323</v>
       </c>
@@ -23692,7 +23708,7 @@
         <v>9.3289296472565762E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>219</v>
       </c>
@@ -23814,7 +23830,7 @@
         <v>8.6475378278639669E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>368</v>
       </c>
@@ -23936,7 +23952,7 @@
         <v>8.404931371864887E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>282</v>
       </c>
@@ -24058,10 +24074,10 @@
         <v>8.2144667547734591E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AF22" s="2"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
@@ -24185,116 +24201,116 @@
         <f>SUM(R23:AE23)</f>
         <v>19733992828.243946</v>
       </c>
-      <c r="AH23" s="29" t="s">
+      <c r="AH23" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AI23" s="29"/>
+      <c r="AI23" s="28"/>
       <c r="AJ23" s="8">
         <f>(AF23-P23)/P23</f>
         <v>-0.19640470151873946</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24"/>
+      <c r="AH24" s="24"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="24"/>
+      <c r="AL24" s="24"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="24"/>
+      <c r="AO24" s="24"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="25"/>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="24"/>
+      <c r="AH25" s="24"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="24"/>
+      <c r="AM25" s="24"/>
+      <c r="AN25" s="24"/>
+      <c r="AO25" s="24"/>
     </row>
-    <row r="26" spans="1:41" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
+    <row r="26" spans="1:41" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
@@ -24311,21 +24327,21 @@
       <c r="AE26" s="18"/>
       <c r="AF26" s="18"/>
     </row>
-    <row r="27" spans="1:41" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL27" s="36" t="s">
+    <row r="27" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL27" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AM27" s="37"/>
-      <c r="AN27" s="37"/>
-      <c r="AO27" s="37"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="37"/>
-      <c r="AO28" s="37"/>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
         <v>17</v>
       </c>
@@ -24375,7 +24391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="R30" t="s">
         <v>282</v>
       </c>
@@ -24426,7 +24442,7 @@
         <v>162104228.02654776</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>368</v>
       </c>
@@ -24476,14 +24492,14 @@
         <f t="shared" si="8"/>
         <v>165862855.41426423</v>
       </c>
-      <c r="AL31" s="38" t="s">
+      <c r="AL31" s="37" t="s">
         <v>399</v>
       </c>
-      <c r="AM31" s="29"/>
-      <c r="AN31" s="29"/>
-      <c r="AO31" s="29"/>
+      <c r="AM31" s="28"/>
+      <c r="AN31" s="28"/>
+      <c r="AO31" s="28"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="R32" t="s">
         <v>219</v>
       </c>
@@ -24533,12 +24549,12 @@
         <f t="shared" si="8"/>
         <v>170650449.47703576</v>
       </c>
-      <c r="AL32" s="29"/>
-      <c r="AM32" s="29"/>
-      <c r="AN32" s="29"/>
-      <c r="AO32" s="29"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="28"/>
+      <c r="AN32" s="28"/>
+      <c r="AO32" s="28"/>
     </row>
-    <row r="33" spans="18:41" x14ac:dyDescent="0.2">
+    <row r="33" spans="18:41" x14ac:dyDescent="0.25">
       <c r="R33" t="s">
         <v>323</v>
       </c>
@@ -24588,12 +24604,12 @@
         <f t="shared" si="8"/>
         <v>184097030.75415361</v>
       </c>
-      <c r="AL33" s="29"/>
-      <c r="AM33" s="29"/>
-      <c r="AN33" s="29"/>
-      <c r="AO33" s="29"/>
+      <c r="AL33" s="28"/>
+      <c r="AM33" s="28"/>
+      <c r="AN33" s="28"/>
+      <c r="AO33" s="28"/>
     </row>
-    <row r="34" spans="18:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="18:41" x14ac:dyDescent="0.25">
       <c r="R34" t="s">
         <v>213</v>
       </c>
@@ -24644,7 +24660,7 @@
         <v>189688001.56634754</v>
       </c>
     </row>
-    <row r="35" spans="18:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="18:41" x14ac:dyDescent="0.25">
       <c r="R35" t="s">
         <v>101</v>
       </c>
@@ -24695,7 +24711,7 @@
         <v>193137386.92361379</v>
       </c>
     </row>
-    <row r="36" spans="18:41" x14ac:dyDescent="0.2">
+    <row r="36" spans="18:41" x14ac:dyDescent="0.25">
       <c r="R36" t="s">
         <v>183</v>
       </c>
@@ -24746,7 +24762,7 @@
         <v>223226449.73999986</v>
       </c>
     </row>
-    <row r="37" spans="18:41" x14ac:dyDescent="0.2">
+    <row r="37" spans="18:41" x14ac:dyDescent="0.25">
       <c r="R37" t="s">
         <v>326</v>
       </c>
@@ -24797,7 +24813,7 @@
         <v>223289226.82178676</v>
       </c>
     </row>
-    <row r="38" spans="18:41" x14ac:dyDescent="0.2">
+    <row r="38" spans="18:41" x14ac:dyDescent="0.25">
       <c r="R38" t="s">
         <v>296</v>
       </c>
@@ -24848,7 +24864,7 @@
         <v>224581600.96511027</v>
       </c>
     </row>
-    <row r="39" spans="18:41" x14ac:dyDescent="0.2">
+    <row r="39" spans="18:41" x14ac:dyDescent="0.25">
       <c r="R39" t="s">
         <v>314</v>
       </c>
@@ -24899,7 +24915,7 @@
         <v>253900133.27349326</v>
       </c>
     </row>
-    <row r="40" spans="18:41" x14ac:dyDescent="0.2">
+    <row r="40" spans="18:41" x14ac:dyDescent="0.25">
       <c r="R40" t="s">
         <v>284</v>
       </c>
@@ -24950,7 +24966,7 @@
         <v>278992914.92527187</v>
       </c>
     </row>
-    <row r="41" spans="18:41" x14ac:dyDescent="0.2">
+    <row r="41" spans="18:41" x14ac:dyDescent="0.25">
       <c r="R41" t="s">
         <v>342</v>
       </c>
@@ -25001,7 +25017,7 @@
         <v>305346011.22320938</v>
       </c>
     </row>
-    <row r="42" spans="18:41" x14ac:dyDescent="0.2">
+    <row r="42" spans="18:41" x14ac:dyDescent="0.25">
       <c r="R42" t="s">
         <v>336</v>
       </c>
@@ -25052,7 +25068,7 @@
         <v>320740577.31321758</v>
       </c>
     </row>
-    <row r="43" spans="18:41" x14ac:dyDescent="0.2">
+    <row r="43" spans="18:41" x14ac:dyDescent="0.25">
       <c r="R43" t="s">
         <v>231</v>
       </c>
@@ -25103,7 +25119,7 @@
         <v>421092837.23631972</v>
       </c>
     </row>
-    <row r="44" spans="18:41" x14ac:dyDescent="0.2">
+    <row r="44" spans="18:41" x14ac:dyDescent="0.25">
       <c r="R44" t="s">
         <v>331</v>
       </c>
@@ -25154,7 +25170,7 @@
         <v>456534980.64615697</v>
       </c>
     </row>
-    <row r="45" spans="18:41" x14ac:dyDescent="0.2">
+    <row r="45" spans="18:41" x14ac:dyDescent="0.25">
       <c r="R45" t="s">
         <v>147</v>
       </c>
@@ -25205,7 +25221,7 @@
         <v>819560164.43999982</v>
       </c>
     </row>
-    <row r="46" spans="18:41" x14ac:dyDescent="0.2">
+    <row r="46" spans="18:41" x14ac:dyDescent="0.25">
       <c r="R46" t="s">
         <v>226</v>
       </c>
@@ -25256,7 +25272,7 @@
         <v>1268096294.0746555</v>
       </c>
     </row>
-    <row r="47" spans="18:41" x14ac:dyDescent="0.2">
+    <row r="47" spans="18:41" x14ac:dyDescent="0.25">
       <c r="R47" t="s">
         <v>133</v>
       </c>
@@ -25307,7 +25323,7 @@
         <v>1429368484.0157044</v>
       </c>
     </row>
-    <row r="48" spans="18:41" x14ac:dyDescent="0.2">
+    <row r="48" spans="18:41" x14ac:dyDescent="0.25">
       <c r="R48" t="s">
         <v>382</v>
       </c>
@@ -25358,7 +25374,7 @@
         <v>3121224387.148201</v>
       </c>
     </row>
-    <row r="49" spans="18:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R49" t="s">
         <v>385</v>
       </c>
@@ -25409,42 +25425,42 @@
         <v>9322498814.2588577</v>
       </c>
     </row>
-    <row r="51" spans="18:33" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="18:33" x14ac:dyDescent="0.2">
-      <c r="R52" s="30" t="s">
+    <row r="51" spans="18:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="18:33" x14ac:dyDescent="0.25">
+      <c r="R52" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="S52" s="31"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="31"/>
-      <c r="W52" s="31"/>
-      <c r="X52" s="31"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="31"/>
-      <c r="AB52" s="31"/>
-      <c r="AC52" s="31"/>
-      <c r="AD52" s="31"/>
-      <c r="AE52" s="31"/>
-      <c r="AF52" s="32"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="30"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="30"/>
+      <c r="AD52" s="30"/>
+      <c r="AE52" s="30"/>
+      <c r="AF52" s="31"/>
     </row>
-    <row r="53" spans="18:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R53" s="33"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="34"/>
-      <c r="AD53" s="34"/>
-      <c r="AE53" s="34"/>
-      <c r="AF53" s="35"/>
+    <row r="53" spans="18:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R53" s="32"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="33"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="33"/>
+      <c r="AC53" s="33"/>
+      <c r="AD53" s="33"/>
+      <c r="AE53" s="33"/>
+      <c r="AF53" s="34"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R30:AG49">
@@ -25469,34 +25485,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641AD88B-0C23-E546-B851-75ABDCC56496}">
   <dimension ref="A1:BG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BG25" sqref="BG25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.83203125" style="2"/>
+    <col min="34" max="34" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.77734375" style="2"/>
     <col min="37" max="37" width="11" style="8" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.83203125" style="6"/>
-    <col min="44" max="44" width="10.83203125" style="2"/>
+    <col min="42" max="42" width="10.77734375" style="6"/>
+    <col min="44" max="44" width="10.77734375" style="2"/>
     <col min="59" max="59" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
@@ -25590,7 +25606,7 @@
       <c r="AE1" s="20">
         <v>45321</v>
       </c>
-      <c r="AF1" s="42" t="s">
+      <c r="AF1" s="40" t="s">
         <v>405</v>
       </c>
       <c r="AG1" s="2" t="s">
@@ -25599,7 +25615,7 @@
       <c r="AH1" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="AI1" s="43" t="s">
+      <c r="AI1" s="41" t="s">
         <v>437</v>
       </c>
       <c r="AJ1" s="2" t="s">
@@ -25611,7 +25627,7 @@
       <c r="AL1" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="AM1" s="43" t="s">
+      <c r="AM1" s="41" t="s">
         <v>437</v>
       </c>
       <c r="AO1" s="2" t="s">
@@ -25669,7 +25685,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>385</v>
       </c>
@@ -25763,7 +25779,7 @@
       <c r="AE2" s="19">
         <v>955162979.98242402</v>
       </c>
-      <c r="AF2" s="42"/>
+      <c r="AF2" s="40"/>
       <c r="AG2" s="2">
         <f>SUM(D2:Q2)</f>
         <v>26941349734.743713</v>
@@ -25772,7 +25788,7 @@
         <f>SUM(R2:AE2)</f>
         <v>15405973318.641943</v>
       </c>
-      <c r="AI2" s="43"/>
+      <c r="AI2" s="41"/>
       <c r="AJ2" s="2" t="str">
         <f>A2</f>
         <v>Uniswap</v>
@@ -25785,7 +25801,7 @@
         <f>(AH2-AG2)/AG2</f>
         <v>-0.4281662399870666</v>
       </c>
-      <c r="AM2" s="43"/>
+      <c r="AM2" s="41"/>
       <c r="AO2" s="19" t="s">
         <v>219</v>
       </c>
@@ -25841,7 +25857,7 @@
         <v>455248855.91378331</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>382</v>
       </c>
@@ -25935,7 +25951,7 @@
       <c r="AE3" s="19">
         <v>478991093.83360201</v>
       </c>
-      <c r="AF3" s="42"/>
+      <c r="AF3" s="40"/>
       <c r="AG3" s="2">
         <f t="shared" ref="AG3:AG21" si="0">SUM(D3:Q3)</f>
         <v>8268758713.0618486</v>
@@ -25944,7 +25960,7 @@
         <f t="shared" ref="AH3:AH21" si="1">SUM(R3:AE3)</f>
         <v>5282142784.8770037</v>
       </c>
-      <c r="AI3" s="43"/>
+      <c r="AI3" s="41"/>
       <c r="AJ3" s="2" t="str">
         <f t="shared" ref="AJ3:AJ21" si="2">A3</f>
         <v>PancakeSwap</v>
@@ -25957,7 +25973,7 @@
         <f t="shared" ref="AL3:AL21" si="4">(AH3-AG3)/AG3</f>
         <v>-0.36119277775840763</v>
       </c>
-      <c r="AM3" s="43"/>
+      <c r="AM3" s="41"/>
       <c r="AO3" s="19" t="s">
         <v>282</v>
       </c>
@@ -26013,7 +26029,7 @@
         <v>456534980.64615697</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>442</v>
       </c>
@@ -26107,7 +26123,7 @@
       <c r="AE4" s="19">
         <v>204965881.38133001</v>
       </c>
-      <c r="AF4" s="42"/>
+      <c r="AF4" s="40"/>
       <c r="AG4" s="2">
         <f t="shared" si="0"/>
         <v>5568688853.1215906</v>
@@ -26116,7 +26132,7 @@
         <f t="shared" si="1"/>
         <v>4434353842.2127075</v>
       </c>
-      <c r="AI4" s="43"/>
+      <c r="AI4" s="41"/>
       <c r="AJ4" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Astroport</v>
@@ -26129,7 +26145,7 @@
         <f t="shared" si="4"/>
         <v>-0.20369875940779469</v>
       </c>
-      <c r="AM4" s="43"/>
+      <c r="AM4" s="41"/>
       <c r="AO4" s="19" t="s">
         <v>288</v>
       </c>
@@ -26185,7 +26201,7 @@
         <v>554419081.94959867</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>288</v>
       </c>
@@ -26279,7 +26295,7 @@
       <c r="AE5" s="19">
         <v>314337391.14999998</v>
       </c>
-      <c r="AF5" s="42"/>
+      <c r="AF5" s="40"/>
       <c r="AG5" s="2">
         <f t="shared" si="0"/>
         <v>3200811687.7099996</v>
@@ -26288,7 +26304,7 @@
         <f t="shared" si="1"/>
         <v>3942847602.6700006</v>
       </c>
-      <c r="AI5" s="43"/>
+      <c r="AI5" s="41"/>
       <c r="AJ5" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Raydium</v>
@@ -26301,7 +26317,7 @@
         <f t="shared" si="4"/>
         <v>0.23182741984139837</v>
       </c>
-      <c r="AM5" s="43"/>
+      <c r="AM5" s="41"/>
       <c r="AO5" s="19" t="s">
         <v>472</v>
       </c>
@@ -26357,7 +26373,7 @@
         <v>620343549.43141401</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>258</v>
       </c>
@@ -26451,7 +26467,7 @@
       <c r="AE6" s="19">
         <v>333611386.72697997</v>
       </c>
-      <c r="AF6" s="42"/>
+      <c r="AF6" s="40"/>
       <c r="AG6" s="2">
         <f t="shared" si="0"/>
         <v>4404915361.812274</v>
@@ -26460,7 +26476,7 @@
         <f t="shared" si="1"/>
         <v>3279361230.659997</v>
       </c>
-      <c r="AI6" s="43"/>
+      <c r="AI6" s="41"/>
       <c r="AJ6" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Orca</v>
@@ -26473,7 +26489,7 @@
         <f t="shared" si="4"/>
         <v>-0.25552230603795317</v>
       </c>
-      <c r="AM6" s="43"/>
+      <c r="AM6" s="41"/>
       <c r="AO6" s="19" t="s">
         <v>504</v>
       </c>
@@ -26529,7 +26545,7 @@
         <v>686875152.42301953</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>410</v>
       </c>
@@ -26623,7 +26639,7 @@
       <c r="AE7" s="19">
         <v>218041462.051002</v>
       </c>
-      <c r="AF7" s="42"/>
+      <c r="AF7" s="40"/>
       <c r="AG7" s="2">
         <f t="shared" si="0"/>
         <v>3090773718.0484781</v>
@@ -26632,7 +26648,7 @@
         <f t="shared" si="1"/>
         <v>2710528201.7707953</v>
       </c>
-      <c r="AI7" s="43"/>
+      <c r="AI7" s="41"/>
       <c r="AJ7" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Curve</v>
@@ -26645,7 +26661,7 @@
         <f t="shared" si="4"/>
         <v>-0.12302599638959358</v>
       </c>
-      <c r="AM7" s="43"/>
+      <c r="AM7" s="41"/>
       <c r="AO7" s="19" t="s">
         <v>101</v>
       </c>
@@ -26701,7 +26717,7 @@
         <v>708791710</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>336</v>
       </c>
@@ -26795,7 +26811,7 @@
       <c r="AE8" s="19">
         <v>132627927.996167</v>
       </c>
-      <c r="AF8" s="42"/>
+      <c r="AF8" s="40"/>
       <c r="AG8" s="2">
         <f t="shared" si="0"/>
         <v>2649920479.4570765</v>
@@ -26804,7 +26820,7 @@
         <f t="shared" si="1"/>
         <v>1721289423.5222182</v>
       </c>
-      <c r="AI8" s="43"/>
+      <c r="AI8" s="41"/>
       <c r="AJ8" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Thorchain</v>
@@ -26817,7 +26833,7 @@
         <f t="shared" si="4"/>
         <v>-0.35043732939681232</v>
       </c>
-      <c r="AM8" s="43"/>
+      <c r="AM8" s="41"/>
       <c r="AO8" s="19" t="s">
         <v>503</v>
       </c>
@@ -26873,7 +26889,7 @@
         <v>728450491.6823529</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>472</v>
       </c>
@@ -26967,7 +26983,7 @@
       <c r="AE9" s="19">
         <v>95264875.592474297</v>
       </c>
-      <c r="AF9" s="42"/>
+      <c r="AF9" s="40"/>
       <c r="AG9" s="2">
         <f t="shared" si="0"/>
         <v>1118748041.9233153</v>
@@ -26976,7 +26992,7 @@
         <f t="shared" si="1"/>
         <v>1171766864.7295289</v>
       </c>
-      <c r="AI9" s="43"/>
+      <c r="AI9" s="41"/>
       <c r="AJ9" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Phoenix</v>
@@ -26989,7 +27005,7 @@
         <f t="shared" si="4"/>
         <v>4.7391209476501411E-2</v>
       </c>
-      <c r="AM9" s="43"/>
+      <c r="AM9" s="41"/>
       <c r="AO9" s="19" t="s">
         <v>409</v>
       </c>
@@ -27045,7 +27061,7 @@
         <v>737824948.65404809</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>504</v>
       </c>
@@ -27139,7 +27155,7 @@
       <c r="AE10" s="19">
         <v>95246649.999969304</v>
       </c>
-      <c r="AF10" s="42"/>
+      <c r="AF10" s="40"/>
       <c r="AG10" s="2">
         <f t="shared" si="0"/>
         <v>1104119557.5028517</v>
@@ -27148,7 +27164,7 @@
         <f t="shared" si="1"/>
         <v>1121132417.2007973</v>
       </c>
-      <c r="AI10" s="43"/>
+      <c r="AI10" s="41"/>
       <c r="AJ10" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Lifinity</v>
@@ -27161,7 +27177,7 @@
         <f t="shared" si="4"/>
         <v>1.540853033744188E-2</v>
       </c>
-      <c r="AM10" s="43"/>
+      <c r="AM10" s="41"/>
       <c r="AO10" s="19" t="s">
         <v>410</v>
       </c>
@@ -27217,7 +27233,7 @@
         <v>794840510.17999983</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>342</v>
       </c>
@@ -27311,7 +27327,7 @@
       <c r="AE11" s="19">
         <v>107958925.88506</v>
       </c>
-      <c r="AF11" s="42"/>
+      <c r="AF11" s="40"/>
       <c r="AG11" s="2">
         <f t="shared" si="0"/>
         <v>2118030933.1155136</v>
@@ -27320,7 +27336,7 @@
         <f t="shared" si="1"/>
         <v>1100572093.6014602</v>
       </c>
-      <c r="AI11" s="43"/>
+      <c r="AI11" s="41"/>
       <c r="AJ11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Trader Joe</v>
@@ -27333,7 +27349,7 @@
         <f t="shared" si="4"/>
         <v>-0.48037959389829316</v>
       </c>
-      <c r="AM11" s="43"/>
+      <c r="AM11" s="41"/>
       <c r="AO11" s="19" t="s">
         <v>284</v>
       </c>
@@ -27389,7 +27405,7 @@
         <v>890494858.41511738</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>219</v>
       </c>
@@ -27483,7 +27499,7 @@
       <c r="AE12" s="19">
         <v>72074889.071031496</v>
       </c>
-      <c r="AF12" s="42"/>
+      <c r="AF12" s="40"/>
       <c r="AG12" s="2">
         <f t="shared" si="0"/>
         <v>519969581.86575556</v>
@@ -27492,7 +27508,7 @@
         <f t="shared" si="1"/>
         <v>890494858.41511738</v>
       </c>
-      <c r="AI12" s="43"/>
+      <c r="AI12" s="41"/>
       <c r="AJ12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Lighter</v>
@@ -27505,7 +27521,7 @@
         <f t="shared" si="4"/>
         <v>0.71259029272412922</v>
       </c>
-      <c r="AM12" s="43"/>
+      <c r="AM12" s="41"/>
       <c r="AO12" s="19" t="s">
         <v>442</v>
       </c>
@@ -27561,7 +27577,7 @@
         <v>1100572093.6014602</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>147</v>
       </c>
@@ -27655,7 +27671,7 @@
       <c r="AE13" s="19">
         <v>63539085.020000003</v>
       </c>
-      <c r="AF13" s="42"/>
+      <c r="AF13" s="40"/>
       <c r="AG13" s="2">
         <f t="shared" si="0"/>
         <v>1131944417.9499974</v>
@@ -27664,7 +27680,7 @@
         <f t="shared" si="1"/>
         <v>794840510.17999983</v>
       </c>
-      <c r="AI13" s="43"/>
+      <c r="AI13" s="41"/>
       <c r="AJ13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>DODO</v>
@@ -27677,7 +27693,7 @@
         <f t="shared" si="4"/>
         <v>-0.29780959420296277</v>
       </c>
-      <c r="AM13" s="43"/>
+      <c r="AM13" s="41"/>
       <c r="AO13" s="19" t="s">
         <v>258</v>
       </c>
@@ -27733,7 +27749,7 @@
         <v>1121132417.2007973</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>112</v>
       </c>
@@ -27827,7 +27843,7 @@
       <c r="AE14" s="19">
         <v>49783835.183277301</v>
       </c>
-      <c r="AF14" s="42"/>
+      <c r="AF14" s="40"/>
       <c r="AG14" s="2">
         <f t="shared" si="0"/>
         <v>1727720753.3496678</v>
@@ -27836,7 +27852,7 @@
         <f t="shared" si="1"/>
         <v>737824948.65404809</v>
       </c>
-      <c r="AI14" s="43"/>
+      <c r="AI14" s="41"/>
       <c r="AJ14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Camelot</v>
@@ -27849,7 +27865,7 @@
         <f t="shared" si="4"/>
         <v>-0.57294895762317555</v>
       </c>
-      <c r="AM14" s="43"/>
+      <c r="AM14" s="41"/>
       <c r="AO14" s="19" t="s">
         <v>147</v>
       </c>
@@ -27905,7 +27921,7 @@
         <v>1171766864.7295289</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>101</v>
       </c>
@@ -27999,7 +28015,7 @@
       <c r="AE15" s="19">
         <v>33540987.253827799</v>
       </c>
-      <c r="AF15" s="42"/>
+      <c r="AF15" s="40"/>
       <c r="AG15" s="2">
         <f t="shared" si="0"/>
         <v>765987501.80465567</v>
@@ -28008,7 +28024,7 @@
         <f t="shared" si="1"/>
         <v>728450491.6823529</v>
       </c>
-      <c r="AI15" s="43"/>
+      <c r="AI15" s="41"/>
       <c r="AJ15" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Balancer</v>
@@ -28021,7 +28037,7 @@
         <f t="shared" si="4"/>
         <v>-4.9004729233657347E-2</v>
       </c>
-      <c r="AM15" s="43"/>
+      <c r="AM15" s="41"/>
       <c r="AO15" s="19" t="s">
         <v>505</v>
       </c>
@@ -28077,7 +28093,7 @@
         <v>1721289423.5222182</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>503</v>
       </c>
@@ -28171,7 +28187,7 @@
       <c r="AE16" s="19">
         <v>75333044</v>
       </c>
-      <c r="AF16" s="42"/>
+      <c r="AF16" s="40"/>
       <c r="AG16" s="2">
         <f t="shared" si="0"/>
         <v>754350395</v>
@@ -28180,7 +28196,7 @@
         <f t="shared" si="1"/>
         <v>708791710</v>
       </c>
-      <c r="AI16" s="43"/>
+      <c r="AI16" s="41"/>
       <c r="AJ16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Vertex</v>
@@ -28193,7 +28209,7 @@
         <f t="shared" si="4"/>
         <v>-6.039459288677114E-2</v>
       </c>
-      <c r="AM16" s="43"/>
+      <c r="AM16" s="41"/>
       <c r="AO16" s="19" t="s">
         <v>336</v>
       </c>
@@ -28249,7 +28265,7 @@
         <v>2710528201.7707953</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>284</v>
       </c>
@@ -28343,7 +28359,7 @@
       <c r="AE17" s="19">
         <v>50281574.51726</v>
       </c>
-      <c r="AF17" s="42"/>
+      <c r="AF17" s="40"/>
       <c r="AG17" s="2">
         <f t="shared" si="0"/>
         <v>808822554.01674986</v>
@@ -28352,7 +28368,7 @@
         <f t="shared" si="1"/>
         <v>686875152.42301953</v>
       </c>
-      <c r="AI17" s="43"/>
+      <c r="AI17" s="41"/>
       <c r="AJ17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Quickswap</v>
@@ -28365,7 +28381,7 @@
         <f t="shared" si="4"/>
         <v>-0.15077151470136296</v>
       </c>
-      <c r="AM17" s="43"/>
+      <c r="AM17" s="41"/>
       <c r="AO17" s="19" t="s">
         <v>382</v>
       </c>
@@ -28421,7 +28437,7 @@
         <v>3279361230.659997</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>505</v>
       </c>
@@ -28515,7 +28531,7 @@
       <c r="AE18" s="19">
         <v>51791158.979757503</v>
       </c>
-      <c r="AF18" s="42"/>
+      <c r="AF18" s="40"/>
       <c r="AG18" s="2">
         <f t="shared" si="0"/>
         <v>918269575.96090209</v>
@@ -28524,7 +28540,7 @@
         <f t="shared" si="1"/>
         <v>620343549.43141401</v>
       </c>
-      <c r="AI18" s="43"/>
+      <c r="AI18" s="41"/>
       <c r="AJ18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>WOOFi</v>
@@ -28537,7 +28553,7 @@
         <f t="shared" si="4"/>
         <v>-0.32444288074962108</v>
       </c>
-      <c r="AM18" s="43"/>
+      <c r="AM18" s="41"/>
       <c r="AO18" s="19" t="s">
         <v>385</v>
       </c>
@@ -28593,7 +28609,7 @@
         <v>3942847602.6700006</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>409</v>
       </c>
@@ -28687,7 +28703,7 @@
       <c r="AE19" s="19">
         <v>32322579.916515701</v>
       </c>
-      <c r="AF19" s="42"/>
+      <c r="AF19" s="40"/>
       <c r="AG19" s="2">
         <f t="shared" si="0"/>
         <v>630531234.89718807</v>
@@ -28696,7 +28712,7 @@
         <f t="shared" si="1"/>
         <v>554419081.94959867</v>
       </c>
-      <c r="AI19" s="43"/>
+      <c r="AI19" s="41"/>
       <c r="AJ19" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Maverick</v>
@@ -28709,7 +28725,7 @@
         <f t="shared" si="4"/>
         <v>-0.12071115392086793</v>
       </c>
-      <c r="AM19" s="43"/>
+      <c r="AM19" s="41"/>
       <c r="AO19" s="19" t="s">
         <v>342</v>
       </c>
@@ -28765,7 +28781,7 @@
         <v>4434353842.2127075</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>331</v>
       </c>
@@ -28859,7 +28875,7 @@
       <c r="AE20" s="19">
         <v>21646258.339299299</v>
       </c>
-      <c r="AF20" s="42"/>
+      <c r="AF20" s="40"/>
       <c r="AG20" s="2">
         <f t="shared" si="0"/>
         <v>1004952370.0954978</v>
@@ -28868,7 +28884,7 @@
         <f t="shared" si="1"/>
         <v>456534980.64615697</v>
       </c>
-      <c r="AI20" s="43"/>
+      <c r="AI20" s="41"/>
       <c r="AJ20" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Terraswap</v>
@@ -28881,7 +28897,7 @@
         <f t="shared" si="4"/>
         <v>-0.5457148077547459</v>
       </c>
-      <c r="AM20" s="43"/>
+      <c r="AM20" s="41"/>
       <c r="AO20" s="19" t="s">
         <v>331</v>
       </c>
@@ -28937,7 +28953,7 @@
         <v>5282142784.8770037</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>282</v>
       </c>
@@ -29031,7 +29047,7 @@
       <c r="AE21" s="19">
         <v>38524546.039643399</v>
       </c>
-      <c r="AF21" s="42"/>
+      <c r="AF21" s="40"/>
       <c r="AG21" s="2">
         <f t="shared" si="0"/>
         <v>333858721.56459284</v>
@@ -29040,7 +29056,7 @@
         <f t="shared" si="1"/>
         <v>455248855.91378331</v>
       </c>
-      <c r="AI21" s="43"/>
+      <c r="AI21" s="41"/>
       <c r="AJ21" s="2" t="str">
         <f t="shared" si="2"/>
         <v>PulseX</v>
@@ -29053,7 +29069,7 @@
         <f t="shared" si="4"/>
         <v>0.36359731379880905</v>
       </c>
-      <c r="AM21" s="43"/>
+      <c r="AM21" s="41"/>
       <c r="AO21" s="19" t="s">
         <v>112</v>
       </c>
@@ -29109,41 +29125,41 @@
         <v>15405973318.641943</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="D22" s="40" t="s">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D22" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="39" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AF23" s="18" t="s">
         <v>412</v>
       </c>
@@ -29151,34 +29167,34 @@
         <f>SUM(AG2:AG21)</f>
         <v>67062524187.001663</v>
       </c>
-      <c r="AO23" s="44" t="s">
+      <c r="AO23" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="AP23" s="44"/>
-      <c r="AR23" s="29" t="s">
+      <c r="AP23" s="42"/>
+      <c r="AR23" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="AS23" s="29" t="s">
+      <c r="AS23" s="45" t="s">
         <v>502</v>
       </c>
-      <c r="AT23" s="29"/>
-      <c r="AU23" s="29"/>
-      <c r="AV23" s="29"/>
-      <c r="AW23" s="29"/>
-      <c r="AX23" s="29"/>
-      <c r="AY23" s="29"/>
-      <c r="AZ23" s="29"/>
-      <c r="BA23" s="29"/>
-      <c r="BB23" s="29"/>
-      <c r="BC23" s="29"/>
-      <c r="BD23" s="29"/>
-      <c r="BE23" s="29"/>
-      <c r="BF23" s="29"/>
-      <c r="BG23" s="41" t="s">
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="45"/>
+      <c r="BB23" s="45"/>
+      <c r="BC23" s="45"/>
+      <c r="BD23" s="45"/>
+      <c r="BE23" s="45"/>
+      <c r="BF23" s="45"/>
+      <c r="BG23" s="42" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AF24" s="18" t="s">
         <v>413</v>
       </c>
@@ -29186,20 +29202,23 @@
         <f>SUM(AH2:AH21)</f>
         <v>46803791919.181938</v>
       </c>
-      <c r="AO24" s="44"/>
-      <c r="AP24" s="44"/>
-      <c r="AR24" s="29"/>
-      <c r="BG24" s="41"/>
+      <c r="AO24" s="42"/>
+      <c r="AP24" s="42"/>
+      <c r="AR24" s="28"/>
+      <c r="BG24" s="42"/>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="AO25" s="23" t="s">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AO25" s="43" t="s">
         <v>500</v>
       </c>
-      <c r="AP25" s="7" t="s">
+      <c r="AP25" s="44" t="s">
         <v>501</v>
       </c>
+      <c r="BG25" s="46" t="s">
+        <v>506</v>
+      </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="AF26" s="22" t="s">
         <v>414</v>
       </c>
@@ -29223,7 +29242,9 @@
     <mergeCell ref="AR23:AR24"/>
     <mergeCell ref="AS23:BF23"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29235,7 +29256,7 @@
       <selection activeCell="T68" sqref="T68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29251,7 +29272,7 @@
       <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29267,7 +29288,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29283,18 +29304,18 @@
       <selection activeCell="K40" activeCellId="1" sqref="A1:AE21 K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="12" customWidth="1"/>
-    <col min="5" max="16" width="10.83203125" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="16" customWidth="1"/>
-    <col min="18" max="30" width="10.83203125" customWidth="1"/>
-    <col min="31" max="31" width="10.83203125" style="13" customWidth="1"/>
-    <col min="32" max="32" width="10.83203125" customWidth="1"/>
+    <col min="1" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="12" customWidth="1"/>
+    <col min="5" max="16" width="10.77734375" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" style="16" customWidth="1"/>
+    <col min="18" max="30" width="10.77734375" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" style="13" customWidth="1"/>
+    <col min="32" max="32" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
@@ -29391,13 +29412,13 @@
       <c r="AF1" t="s">
         <v>386</v>
       </c>
-      <c r="AH1" s="29" t="s">
+      <c r="AH1" s="28" t="s">
         <v>499</v>
       </c>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>385</v>
       </c>
@@ -29496,7 +29517,7 @@
         <v>15405973318.641943</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>382</v>
       </c>
@@ -29595,7 +29616,7 @@
         <v>5282142784.8770037</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>442</v>
       </c>
@@ -29694,7 +29715,7 @@
         <v>4434353842.2127075</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>288</v>
       </c>
@@ -29793,7 +29814,7 @@
         <v>3942847602.6700006</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>258</v>
       </c>
@@ -29892,7 +29913,7 @@
         <v>3279361230.659997</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>410</v>
       </c>
@@ -29991,7 +30012,7 @@
         <v>2710528201.7707953</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>336</v>
       </c>
@@ -30090,7 +30111,7 @@
         <v>1721289423.5222182</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>472</v>
       </c>
@@ -30189,7 +30210,7 @@
         <v>1171766864.7295289</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>433</v>
       </c>
@@ -30288,7 +30309,7 @@
         <v>1121132417.2007973</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>342</v>
       </c>
@@ -30387,7 +30408,7 @@
         <v>1100572093.6014602</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>462</v>
       </c>
@@ -30486,7 +30507,7 @@
         <v>890494858.41511738</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>147</v>
       </c>
@@ -30585,7 +30606,7 @@
         <v>794840510.17999983</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>112</v>
       </c>
@@ -30684,7 +30705,7 @@
         <v>737824948.65404809</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>101</v>
       </c>
@@ -30783,7 +30804,7 @@
         <v>728450491.6823529</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>503</v>
       </c>
@@ -30882,7 +30903,7 @@
         <v>708791710</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>284</v>
       </c>
@@ -30981,7 +31002,7 @@
         <v>686875152.42301953</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>368</v>
       </c>
@@ -31080,7 +31101,7 @@
         <v>620343549.43141401</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>409</v>
       </c>
@@ -31179,7 +31200,7 @@
         <v>554419081.94959867</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>331</v>
       </c>
@@ -31278,7 +31299,7 @@
         <v>456534980.64615697</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>282</v>
       </c>
@@ -31377,7 +31398,7 @@
         <v>455248855.91378331</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>287</v>
       </c>
@@ -31476,7 +31497,7 @@
         <v>441687964.29001862</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>260</v>
       </c>
@@ -31575,7 +31596,7 @@
         <v>438627272.07809699</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>323</v>
       </c>
@@ -31674,7 +31695,7 @@
         <v>359741319.68303978</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>116</v>
       </c>
@@ -31773,7 +31794,7 @@
         <v>344903648.38393515</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>335</v>
       </c>
@@ -31872,7 +31893,7 @@
         <v>230879562.38809121</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>185</v>
       </c>
@@ -31971,7 +31992,7 @@
         <v>226198616.59333992</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>296</v>
       </c>
@@ -32070,7 +32091,7 @@
         <v>224581600.96511027</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>136</v>
       </c>
@@ -32169,7 +32190,7 @@
         <v>212376811.85583526</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>425</v>
       </c>
@@ -32268,7 +32289,7 @@
         <v>189528263.68018293</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>177</v>
       </c>
@@ -32367,7 +32388,7 @@
         <v>186788872.0682351</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>480</v>
       </c>
@@ -32466,7 +32487,7 @@
         <v>170842862.71805498</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>204</v>
       </c>
@@ -32565,7 +32586,7 @@
         <v>152171788.67711401</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>183</v>
       </c>
@@ -32664,7 +32685,7 @@
         <v>148606871.29000002</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>199</v>
       </c>
@@ -32763,7 +32784,7 @@
         <v>138485204.31025606</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>431</v>
       </c>
@@ -32862,7 +32883,7 @@
         <v>127365604.33818711</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>339</v>
       </c>
@@ -32961,7 +32982,7 @@
         <v>114392043.40531875</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>432</v>
       </c>
@@ -33060,7 +33081,7 @@
         <v>111978155.84014021</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>176</v>
       </c>
@@ -33159,7 +33180,7 @@
         <v>105318394.84613945</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>292</v>
       </c>
@@ -33258,7 +33279,7 @@
         <v>100772583.59962186</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>113</v>
       </c>
@@ -33357,7 +33378,7 @@
         <v>99367577.784703821</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>82</v>
       </c>
@@ -33456,7 +33477,7 @@
         <v>96743946.922001377</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>198</v>
       </c>
@@ -33555,7 +33576,7 @@
         <v>86955979.445494115</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>488</v>
       </c>
@@ -33654,7 +33675,7 @@
         <v>86721320.147447288</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>367</v>
       </c>
@@ -33753,7 +33774,7 @@
         <v>81363806.386513188</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>417</v>
       </c>
@@ -33852,7 +33873,7 @@
         <v>79264963.962564528</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>447</v>
       </c>
@@ -33951,7 +33972,7 @@
         <v>76320207.537513494</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>442</v>
       </c>
@@ -34050,7 +34071,7 @@
         <v>75286716.537233979</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>236</v>
       </c>
@@ -34149,7 +34170,7 @@
         <v>69998018.087468952</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>351</v>
       </c>
@@ -34248,7 +34269,7 @@
         <v>64534601.53060215</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>295</v>
       </c>
@@ -34347,7 +34368,7 @@
         <v>62894766.218243442</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>320</v>
       </c>
@@ -34446,7 +34467,7 @@
         <v>59708393.393375963</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>171</v>
       </c>
@@ -34545,7 +34566,7 @@
         <v>59702040.168727115</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>492</v>
       </c>
@@ -34644,7 +34665,7 @@
         <v>49402302.723358691</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>168</v>
       </c>
@@ -34743,7 +34764,7 @@
         <v>47880410.769999973</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>85</v>
       </c>
@@ -34842,7 +34863,7 @@
         <v>45590164.485861681</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>378</v>
       </c>
@@ -34941,7 +34962,7 @@
         <v>43825763.280000426</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>248</v>
       </c>
@@ -35040,7 +35061,7 @@
         <v>43358387.982496776</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>71</v>
       </c>
@@ -35139,7 +35160,7 @@
         <v>42391125.904237598</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>143</v>
       </c>
@@ -35238,7 +35259,7 @@
         <v>40886175</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>206</v>
       </c>
@@ -35337,7 +35358,7 @@
         <v>39179139.184700012</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>325</v>
       </c>
@@ -35436,7 +35457,7 @@
         <v>35844636.502843708</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>427</v>
       </c>
@@ -35535,7 +35556,7 @@
         <v>35484445.049807824</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>326</v>
       </c>
@@ -35634,7 +35655,7 @@
         <v>34538615.015347004</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>369</v>
       </c>
@@ -35733,7 +35754,7 @@
         <v>32164547.245179124</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>142</v>
       </c>
@@ -35832,7 +35853,7 @@
         <v>31574080.670000002</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>140</v>
       </c>
@@ -35931,7 +35952,7 @@
         <v>31283425.775356494</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>475</v>
       </c>
@@ -36030,7 +36051,7 @@
         <v>30769947.772384062</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>250</v>
       </c>
@@ -36129,7 +36150,7 @@
         <v>30233792.83302195</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>187</v>
       </c>
@@ -36228,7 +36249,7 @@
         <v>28856642.153901629</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
         <v>267</v>
       </c>
@@ -36327,7 +36348,7 @@
         <v>24926375.749202695</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
         <v>357</v>
       </c>
@@ -36426,7 +36447,7 @@
         <v>24599341.213463526</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
         <v>423</v>
       </c>
@@ -36525,7 +36546,7 @@
         <v>23910887</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
         <v>259</v>
       </c>
@@ -36624,7 +36645,7 @@
         <v>23104507.23712486</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>106</v>
       </c>
@@ -36723,7 +36744,7 @@
         <v>22750263.674663253</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>290</v>
       </c>
@@ -36822,7 +36843,7 @@
         <v>22294413.828631673</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>362</v>
       </c>
@@ -36921,7 +36942,7 @@
         <v>20393744.083836846</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>317</v>
       </c>
@@ -37020,7 +37041,7 @@
         <v>20388303.292848814</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>446</v>
       </c>
@@ -37119,7 +37140,7 @@
         <v>20148894.501301028</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
         <v>473</v>
       </c>
@@ -37218,7 +37239,7 @@
         <v>19824272.258790039</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
         <v>390</v>
       </c>
@@ -37317,7 +37338,7 @@
         <v>18727673</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
         <v>434</v>
       </c>
@@ -37416,7 +37437,7 @@
         <v>18058953.20167052</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
         <v>247</v>
       </c>
@@ -37515,7 +37536,7 @@
         <v>16521712.70686953</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>83</v>
       </c>
@@ -37614,7 +37635,7 @@
         <v>16391908.023467518</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>334</v>
       </c>
@@ -37713,7 +37734,7 @@
         <v>16281727.28114255</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>249</v>
       </c>
@@ -37812,7 +37833,7 @@
         <v>15856032.205657277</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>220</v>
       </c>
@@ -37911,7 +37932,7 @@
         <v>15674126.331996782</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>122</v>
       </c>
@@ -38010,7 +38031,7 @@
         <v>15256768.435180768</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>314</v>
       </c>
@@ -38109,7 +38130,7 @@
         <v>15237679.97430006</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>379</v>
       </c>
@@ -38208,7 +38229,7 @@
         <v>15176377.480528757</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>482</v>
       </c>
@@ -38307,7 +38328,7 @@
         <v>15048538.231026374</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>471</v>
       </c>
@@ -38406,7 +38427,7 @@
         <v>14434516.419603139</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>88</v>
       </c>
@@ -38505,7 +38526,7 @@
         <v>14367735.857744059</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>166</v>
       </c>
@@ -38604,7 +38625,7 @@
         <v>14294932.161135528</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>90</v>
       </c>
@@ -38703,7 +38724,7 @@
         <v>14272686.908320297</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
         <v>100</v>
       </c>
@@ -38802,7 +38823,7 @@
         <v>13372399.797333278</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
         <v>299</v>
       </c>
@@ -38901,7 +38922,7 @@
         <v>11800378.2854541</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>74</v>
       </c>
@@ -39000,7 +39021,7 @@
         <v>11795049.359999986</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>455</v>
       </c>
@@ -39099,7 +39120,7 @@
         <v>11425500.55499755</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>145</v>
       </c>
@@ -39198,7 +39219,7 @@
         <v>10880028.314388618</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
         <v>465</v>
       </c>
@@ -39297,7 +39318,7 @@
         <v>9622174.772337269</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>478</v>
       </c>
@@ -39396,7 +39417,7 @@
         <v>9087287.6615219992</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>165</v>
       </c>
@@ -39495,7 +39516,7 @@
         <v>8630647.9678620957</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>78</v>
       </c>
@@ -39594,7 +39615,7 @@
         <v>8626346.456933029</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>164</v>
       </c>
@@ -39693,7 +39714,7 @@
         <v>8404696.6148537807</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>246</v>
       </c>
@@ -39792,7 +39813,7 @@
         <v>8000922.5231608516</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>151</v>
       </c>
@@ -39891,7 +39912,7 @@
         <v>7824113.7080328502</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
         <v>401</v>
       </c>
@@ -39990,7 +40011,7 @@
         <v>7154389.7846219772</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>129</v>
       </c>
@@ -40089,7 +40110,7 @@
         <v>6920011.1770539992</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
         <v>337</v>
       </c>
@@ -40188,7 +40209,7 @@
         <v>6744470.1621834738</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
         <v>397</v>
       </c>
@@ -40287,7 +40308,7 @@
         <v>6621856.7889854657</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
         <v>92</v>
       </c>
@@ -40386,7 +40407,7 @@
         <v>6011647.4665695475</v>
       </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>419</v>
       </c>
@@ -40485,7 +40506,7 @@
         <v>5874549.9455364244</v>
       </c>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114" s="19" t="s">
         <v>257</v>
       </c>
@@ -40584,7 +40605,7 @@
         <v>5726140.4148659995</v>
       </c>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
         <v>102</v>
       </c>
@@ -40683,7 +40704,7 @@
         <v>5614497.3316359995</v>
       </c>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
         <v>108</v>
       </c>
@@ -40782,7 +40803,7 @@
         <v>5610641.2026742855</v>
       </c>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
         <v>262</v>
       </c>
@@ -40881,7 +40902,7 @@
         <v>5535516.7615990099</v>
       </c>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
         <v>169</v>
       </c>
@@ -40980,7 +41001,7 @@
         <v>5460777.6559259351</v>
       </c>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="19" t="s">
         <v>158</v>
       </c>
@@ -41079,7 +41100,7 @@
         <v>5360000.7904381501</v>
       </c>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120" s="19" t="s">
         <v>245</v>
       </c>
@@ -41178,7 +41199,7 @@
         <v>5299265.589224441</v>
       </c>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121" s="19" t="s">
         <v>490</v>
       </c>
@@ -41277,7 +41298,7 @@
         <v>5289340.2809834071</v>
       </c>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122" s="19" t="s">
         <v>227</v>
       </c>
@@ -41376,7 +41397,7 @@
         <v>5152604.9878048813</v>
       </c>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A123" s="19" t="s">
         <v>117</v>
       </c>
@@ -41475,7 +41496,7 @@
         <v>4902110.6164505798</v>
       </c>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="s">
         <v>172</v>
       </c>
@@ -41574,7 +41595,7 @@
         <v>4884961.5343181333</v>
       </c>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A125" s="19" t="s">
         <v>315</v>
       </c>
@@ -41673,7 +41694,7 @@
         <v>4499878.3557863999</v>
       </c>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A126" s="19" t="s">
         <v>99</v>
       </c>
@@ -41772,7 +41793,7 @@
         <v>4496031.4379411582</v>
       </c>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A127" s="19" t="s">
         <v>232</v>
       </c>
@@ -41871,7 +41892,7 @@
         <v>4404323.2637224905</v>
       </c>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
         <v>224</v>
       </c>
@@ -41970,7 +41991,7 @@
         <v>4074131.6273747678</v>
       </c>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129" s="19" t="s">
         <v>364</v>
       </c>
@@ -42069,7 +42090,7 @@
         <v>4033172.9323660987</v>
       </c>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130" s="19" t="s">
         <v>89</v>
       </c>
@@ -42168,7 +42189,7 @@
         <v>4027131.4544542371</v>
       </c>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
         <v>479</v>
       </c>
@@ -42267,7 +42288,7 @@
         <v>3959185.2963991268</v>
       </c>
     </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A132" s="19" t="s">
         <v>197</v>
       </c>
@@ -42366,7 +42387,7 @@
         <v>3915979.63</v>
       </c>
     </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133" s="19" t="s">
         <v>160</v>
       </c>
@@ -42465,7 +42486,7 @@
         <v>3837921.8722482189</v>
       </c>
     </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134" s="19" t="s">
         <v>329</v>
       </c>
@@ -42564,7 +42585,7 @@
         <v>3675529.3334361324</v>
       </c>
     </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135" s="19" t="s">
         <v>483</v>
       </c>
@@ -42663,7 +42684,7 @@
         <v>3630796.0851560342</v>
       </c>
     </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136" s="19" t="s">
         <v>464</v>
       </c>
@@ -42762,7 +42783,7 @@
         <v>3486105.5187566122</v>
       </c>
     </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
         <v>278</v>
       </c>
@@ -42861,7 +42882,7 @@
         <v>3465375.08</v>
       </c>
     </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138" s="19" t="s">
         <v>374</v>
       </c>
@@ -42960,7 +42981,7 @@
         <v>3351691.3304579118</v>
       </c>
     </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139" s="19" t="s">
         <v>400</v>
       </c>
@@ -43059,7 +43080,7 @@
         <v>3323240.4953394467</v>
       </c>
     </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140" s="19" t="s">
         <v>80</v>
       </c>
@@ -43158,7 +43179,7 @@
         <v>3303896.3024322018</v>
       </c>
     </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141" s="19" t="s">
         <v>223</v>
       </c>
@@ -43257,7 +43278,7 @@
         <v>3271909.8748997999</v>
       </c>
     </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142" s="19" t="s">
         <v>332</v>
       </c>
@@ -43356,7 +43377,7 @@
         <v>3253221.9434591364</v>
       </c>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
         <v>458</v>
       </c>
@@ -43455,7 +43476,7 @@
         <v>3149090.6137735629</v>
       </c>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
         <v>393</v>
       </c>
@@ -43554,7 +43575,7 @@
         <v>3112299.2700186558</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
         <v>213</v>
       </c>
@@ -43653,7 +43674,7 @@
         <v>3005769.8351936806</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
         <v>235</v>
       </c>
@@ -43752,7 +43773,7 @@
         <v>2980268.371601304</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
         <v>348</v>
       </c>
@@ -43851,7 +43872,7 @@
         <v>2950450.81</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
         <v>396</v>
       </c>
@@ -43950,7 +43971,7 @@
         <v>2883392.9970264402</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
         <v>167</v>
       </c>
@@ -44049,7 +44070,7 @@
         <v>2881686.5711473757</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
         <v>459</v>
       </c>
@@ -44148,7 +44169,7 @@
         <v>2876469.7818394024</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
         <v>487</v>
       </c>
@@ -44247,7 +44268,7 @@
         <v>2820949.3828274701</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
         <v>121</v>
       </c>
@@ -44346,7 +44367,7 @@
         <v>2665011.5970220817</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
         <v>230</v>
       </c>
@@ -44445,7 +44466,7 @@
         <v>2603571.8780999999</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
         <v>497</v>
       </c>
@@ -44544,7 +44565,7 @@
         <v>2516650.3355316063</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
         <v>72</v>
       </c>
@@ -44643,7 +44664,7 @@
         <v>2506511.4853686201</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
         <v>209</v>
       </c>
@@ -44742,7 +44763,7 @@
         <v>2463426.8712044144</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
         <v>453</v>
       </c>
@@ -44841,7 +44862,7 @@
         <v>2393913.1399999997</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
         <v>344</v>
       </c>
@@ -44940,7 +44961,7 @@
         <v>2390353.5860506352</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
         <v>190</v>
       </c>
@@ -45039,7 +45060,7 @@
         <v>2372908.3726890828</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
         <v>467</v>
       </c>
@@ -45138,7 +45159,7 @@
         <v>2304714.8749326481</v>
       </c>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
         <v>189</v>
       </c>
@@ -45237,7 +45258,7 @@
         <v>2280184.1784285763</v>
       </c>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A162" s="19" t="s">
         <v>449</v>
       </c>
@@ -45336,7 +45357,7 @@
         <v>2238674.879999999</v>
       </c>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
         <v>139</v>
       </c>
@@ -45435,7 +45456,7 @@
         <v>2218132.1829170915</v>
       </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A164" s="19" t="s">
         <v>392</v>
       </c>
@@ -45534,7 +45555,7 @@
         <v>2041043.3260209989</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A165" s="19" t="s">
         <v>302</v>
       </c>
@@ -45633,7 +45654,7 @@
         <v>2031948.7874698094</v>
       </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A166" s="19" t="s">
         <v>422</v>
       </c>
@@ -45732,7 +45753,7 @@
         <v>1999640.4285062163</v>
       </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A167" s="19" t="s">
         <v>477</v>
       </c>
@@ -45831,7 +45852,7 @@
         <v>1962315.2056357886</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A168" s="19" t="s">
         <v>268</v>
       </c>
@@ -45930,7 +45951,7 @@
         <v>1894218.3615999999</v>
       </c>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A169" s="19" t="s">
         <v>205</v>
       </c>
@@ -46029,7 +46050,7 @@
         <v>1812525.7658669432</v>
       </c>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A170" s="19" t="s">
         <v>445</v>
       </c>
@@ -46128,7 +46149,7 @@
         <v>1756038.621572373</v>
       </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A171" s="19" t="s">
         <v>188</v>
       </c>
@@ -46227,7 +46248,7 @@
         <v>1753542.0845083024</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A172" s="19" t="s">
         <v>444</v>
       </c>
@@ -46326,7 +46347,7 @@
         <v>1742903.059022824</v>
       </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A173" s="19" t="s">
         <v>350</v>
       </c>
@@ -46425,7 +46446,7 @@
         <v>1672462.6593013501</v>
       </c>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A174" s="19" t="s">
         <v>498</v>
       </c>
@@ -46524,7 +46545,7 @@
         <v>1604066.380903878</v>
       </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A175" s="19" t="s">
         <v>359</v>
       </c>
@@ -46623,7 +46644,7 @@
         <v>1490345.0624214385</v>
       </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A176" s="19" t="s">
         <v>123</v>
       </c>
@@ -46722,7 +46743,7 @@
         <v>1452344.3381547378</v>
       </c>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A177" s="19" t="s">
         <v>266</v>
       </c>
@@ -46821,7 +46842,7 @@
         <v>1414938.1265314464</v>
       </c>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A178" s="19" t="s">
         <v>324</v>
       </c>
@@ -46920,7 +46941,7 @@
         <v>1279134.3698213727</v>
       </c>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A179" s="19" t="s">
         <v>184</v>
       </c>
@@ -47019,7 +47040,7 @@
         <v>1205124.9222397234</v>
       </c>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A180" s="19" t="s">
         <v>211</v>
       </c>
@@ -47118,7 +47139,7 @@
         <v>1185626.1781623943</v>
       </c>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A181" s="19" t="s">
         <v>159</v>
       </c>
@@ -47217,7 +47238,7 @@
         <v>1160233.3270291586</v>
       </c>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A182" s="19" t="s">
         <v>75</v>
       </c>
@@ -47316,7 +47337,7 @@
         <v>1153352.4958054638</v>
       </c>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A183" s="19" t="s">
         <v>138</v>
       </c>
@@ -47415,7 +47436,7 @@
         <v>1139702.8233702558</v>
       </c>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A184" s="19" t="s">
         <v>403</v>
       </c>
@@ -47514,7 +47535,7 @@
         <v>1132419.4411947199</v>
       </c>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A185" s="19" t="s">
         <v>155</v>
       </c>
@@ -47613,7 +47634,7 @@
         <v>1132121.3764200001</v>
       </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A186" s="19" t="s">
         <v>372</v>
       </c>
@@ -47712,7 +47733,7 @@
         <v>1128983.9512071726</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A187" s="19" t="s">
         <v>298</v>
       </c>
@@ -47811,7 +47832,7 @@
         <v>1116715.0990968656</v>
       </c>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A188" s="19" t="s">
         <v>429</v>
       </c>
@@ -47910,7 +47931,7 @@
         <v>1111247.9360705002</v>
       </c>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A189" s="19" t="s">
         <v>218</v>
       </c>
@@ -48009,7 +48030,7 @@
         <v>1058629.2359768886</v>
       </c>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A190" s="19" t="s">
         <v>152</v>
       </c>
@@ -48108,7 +48129,7 @@
         <v>1039382.7483320876</v>
       </c>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A191" s="19" t="s">
         <v>137</v>
       </c>
@@ -48207,7 +48228,7 @@
         <v>962252</v>
       </c>
     </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A192" s="19" t="s">
         <v>313</v>
       </c>
@@ -48306,7 +48327,7 @@
         <v>961644.06959327497</v>
       </c>
     </row>
-    <row r="193" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A193" s="19" t="s">
         <v>340</v>
       </c>
@@ -48405,7 +48426,7 @@
         <v>940760.63010262093</v>
       </c>
     </row>
-    <row r="194" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A194" s="19" t="s">
         <v>76</v>
       </c>
@@ -48504,7 +48525,7 @@
         <v>893623.82407063222</v>
       </c>
     </row>
-    <row r="195" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A195" s="19" t="s">
         <v>456</v>
       </c>
@@ -48603,7 +48624,7 @@
         <v>868138.13573757326</v>
       </c>
     </row>
-    <row r="196" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A196" s="19" t="s">
         <v>353</v>
       </c>
@@ -48702,7 +48723,7 @@
         <v>816960.77461171022</v>
       </c>
     </row>
-    <row r="197" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A197" s="19" t="s">
         <v>474</v>
       </c>
@@ -48801,7 +48822,7 @@
         <v>800423.45483791747</v>
       </c>
     </row>
-    <row r="198" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A198" s="19" t="s">
         <v>269</v>
       </c>
@@ -48900,7 +48921,7 @@
         <v>790547.73400811292</v>
       </c>
     </row>
-    <row r="199" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A199" s="19" t="s">
         <v>360</v>
       </c>
@@ -48999,7 +49020,7 @@
         <v>783151.42446916108</v>
       </c>
     </row>
-    <row r="200" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A200" s="19" t="s">
         <v>355</v>
       </c>
@@ -49098,7 +49119,7 @@
         <v>761494.02616302576</v>
       </c>
     </row>
-    <row r="201" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A201" s="19" t="s">
         <v>256</v>
       </c>
@@ -49197,7 +49218,7 @@
         <v>760054.17042999284</v>
       </c>
     </row>
-    <row r="202" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A202" s="19" t="s">
         <v>297</v>
       </c>
@@ -49296,7 +49317,7 @@
         <v>758443.96110582515</v>
       </c>
     </row>
-    <row r="203" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A203" s="19" t="s">
         <v>343</v>
       </c>
@@ -49395,7 +49416,7 @@
         <v>717106.71782883257</v>
       </c>
     </row>
-    <row r="204" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A204" s="19" t="s">
         <v>450</v>
       </c>
@@ -49494,7 +49515,7 @@
         <v>707619.5</v>
       </c>
     </row>
-    <row r="205" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A205" s="19" t="s">
         <v>391</v>
       </c>
@@ -49593,7 +49614,7 @@
         <v>705289.24328984437</v>
       </c>
     </row>
-    <row r="206" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A206" s="19" t="s">
         <v>208</v>
       </c>
@@ -49692,7 +49713,7 @@
         <v>685937.66119667748</v>
       </c>
     </row>
-    <row r="207" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A207" s="19" t="s">
         <v>200</v>
       </c>
@@ -49791,7 +49812,7 @@
         <v>677250.29336108873</v>
       </c>
     </row>
-    <row r="208" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A208" s="19" t="s">
         <v>225</v>
       </c>
@@ -49890,7 +49911,7 @@
         <v>670990.12434380245</v>
       </c>
     </row>
-    <row r="209" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A209" s="19" t="s">
         <v>347</v>
       </c>
@@ -49989,7 +50010,7 @@
         <v>669009.14286788693</v>
       </c>
     </row>
-    <row r="210" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A210" s="19" t="s">
         <v>105</v>
       </c>
@@ -50088,7 +50109,7 @@
         <v>662555.33193855127</v>
       </c>
     </row>
-    <row r="211" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A211" s="19" t="s">
         <v>375</v>
       </c>
@@ -50187,7 +50208,7 @@
         <v>661023.44158552832</v>
       </c>
     </row>
-    <row r="212" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A212" s="19" t="s">
         <v>203</v>
       </c>
@@ -50286,7 +50307,7 @@
         <v>660099.0014767145</v>
       </c>
     </row>
-    <row r="213" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A213" s="19" t="s">
         <v>241</v>
       </c>
@@ -50385,7 +50406,7 @@
         <v>648992.66571501945</v>
       </c>
     </row>
-    <row r="214" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A214" s="19" t="s">
         <v>96</v>
       </c>
@@ -50484,7 +50505,7 @@
         <v>629018.66684436414</v>
       </c>
     </row>
-    <row r="215" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A215" s="19" t="s">
         <v>196</v>
       </c>
@@ -50583,7 +50604,7 @@
         <v>621001.01712602482</v>
       </c>
     </row>
-    <row r="216" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A216" s="19" t="s">
         <v>144</v>
       </c>
@@ -50682,7 +50703,7 @@
         <v>606376.69146618561</v>
       </c>
     </row>
-    <row r="217" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A217" s="19" t="s">
         <v>154</v>
       </c>
@@ -50781,7 +50802,7 @@
         <v>603947.01095029048</v>
       </c>
     </row>
-    <row r="218" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A218" s="19" t="s">
         <v>485</v>
       </c>
@@ -50880,7 +50901,7 @@
         <v>590697.84134995122</v>
       </c>
     </row>
-    <row r="219" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A219" s="19" t="s">
         <v>148</v>
       </c>
@@ -50979,7 +51000,7 @@
         <v>585591.30900205858</v>
       </c>
     </row>
-    <row r="220" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A220" s="19" t="s">
         <v>356</v>
       </c>
@@ -51078,7 +51099,7 @@
         <v>579581.1574928211</v>
       </c>
     </row>
-    <row r="221" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A221" s="19" t="s">
         <v>469</v>
       </c>
@@ -51177,7 +51198,7 @@
         <v>563498.87700633495</v>
       </c>
     </row>
-    <row r="222" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A222" s="19" t="s">
         <v>496</v>
       </c>
@@ -51276,7 +51297,7 @@
         <v>527142.83990290179</v>
       </c>
     </row>
-    <row r="223" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A223" s="19" t="s">
         <v>175</v>
       </c>
@@ -51375,7 +51396,7 @@
         <v>502074.61746867571</v>
       </c>
     </row>
-    <row r="224" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A224" s="19" t="s">
         <v>303</v>
       </c>
@@ -51474,7 +51495,7 @@
         <v>494287.68522133812</v>
       </c>
     </row>
-    <row r="225" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A225" s="19" t="s">
         <v>495</v>
       </c>
@@ -51573,7 +51594,7 @@
         <v>446936.08485852473</v>
       </c>
     </row>
-    <row r="226" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A226" s="19" t="s">
         <v>470</v>
       </c>
@@ -51672,7 +51693,7 @@
         <v>435329.58357068466</v>
       </c>
     </row>
-    <row r="227" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A227" s="19" t="s">
         <v>435</v>
       </c>
@@ -51771,7 +51792,7 @@
         <v>427639.01901643048</v>
       </c>
     </row>
-    <row r="228" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A228" s="19" t="s">
         <v>476</v>
       </c>
@@ -51870,7 +51891,7 @@
         <v>424998.58568399993</v>
       </c>
     </row>
-    <row r="229" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A229" s="19" t="s">
         <v>192</v>
       </c>
@@ -51969,7 +51990,7 @@
         <v>404654.04463722243</v>
       </c>
     </row>
-    <row r="230" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A230" s="19" t="s">
         <v>98</v>
       </c>
@@ -52068,7 +52089,7 @@
         <v>402551.08118185034</v>
       </c>
     </row>
-    <row r="231" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A231" s="19" t="s">
         <v>277</v>
       </c>
@@ -52167,7 +52188,7 @@
         <v>394365.22913138621</v>
       </c>
     </row>
-    <row r="232" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A232" s="19" t="s">
         <v>305</v>
       </c>
@@ -52266,7 +52287,7 @@
         <v>389130.57041599782</v>
       </c>
     </row>
-    <row r="233" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A233" s="19" t="s">
         <v>441</v>
       </c>
@@ -52365,7 +52386,7 @@
         <v>379237.30242898461</v>
       </c>
     </row>
-    <row r="234" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A234" s="19" t="s">
         <v>280</v>
       </c>
@@ -52464,7 +52485,7 @@
         <v>372053.85298279888</v>
       </c>
     </row>
-    <row r="235" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A235" s="19" t="s">
         <v>141</v>
       </c>
@@ -52563,7 +52584,7 @@
         <v>361286.19086615602</v>
       </c>
     </row>
-    <row r="236" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A236" s="19" t="s">
         <v>104</v>
       </c>
@@ -52662,7 +52683,7 @@
         <v>361212.80272618734</v>
       </c>
     </row>
-    <row r="237" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A237" s="19" t="s">
         <v>354</v>
       </c>
@@ -52761,7 +52782,7 @@
         <v>334282.47567329294</v>
       </c>
     </row>
-    <row r="238" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A238" s="19" t="s">
         <v>318</v>
       </c>
@@ -52860,7 +52881,7 @@
         <v>318384.70374647499</v>
       </c>
     </row>
-    <row r="239" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A239" s="19" t="s">
         <v>216</v>
       </c>
@@ -52959,7 +52980,7 @@
         <v>316741.44279210642</v>
       </c>
     </row>
-    <row r="240" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A240" s="19" t="s">
         <v>358</v>
       </c>
@@ -53058,7 +53079,7 @@
         <v>313672.75779763929</v>
       </c>
     </row>
-    <row r="241" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A241" s="19" t="s">
         <v>436</v>
       </c>
@@ -53157,7 +53178,7 @@
         <v>312496.9074295889</v>
       </c>
     </row>
-    <row r="242" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A242" s="19" t="s">
         <v>316</v>
       </c>
@@ -53256,7 +53277,7 @@
         <v>307475.03723431757</v>
       </c>
     </row>
-    <row r="243" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A243" s="19" t="s">
         <v>77</v>
       </c>
@@ -53355,7 +53376,7 @@
         <v>304907.64469999995</v>
       </c>
     </row>
-    <row r="244" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A244" s="19" t="s">
         <v>285</v>
       </c>
@@ -53454,7 +53475,7 @@
         <v>294286.48880586389</v>
       </c>
     </row>
-    <row r="245" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A245" s="19" t="s">
         <v>389</v>
       </c>
@@ -53553,7 +53574,7 @@
         <v>287835.90359879</v>
       </c>
     </row>
-    <row r="246" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A246" s="19" t="s">
         <v>484</v>
       </c>
@@ -53652,7 +53673,7 @@
         <v>286924.01897940843</v>
       </c>
     </row>
-    <row r="247" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A247" s="19" t="s">
         <v>294</v>
       </c>
@@ -53751,7 +53772,7 @@
         <v>263499.52925392397</v>
       </c>
     </row>
-    <row r="248" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A248" s="19" t="s">
         <v>242</v>
       </c>
@@ -53850,7 +53871,7 @@
         <v>235509.45506443537</v>
       </c>
     </row>
-    <row r="249" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A249" s="19" t="s">
         <v>494</v>
       </c>
@@ -53949,7 +53970,7 @@
         <v>233258.4673356656</v>
       </c>
     </row>
-    <row r="250" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A250" s="19" t="s">
         <v>86</v>
       </c>
@@ -54048,7 +54069,7 @@
         <v>225731</v>
       </c>
     </row>
-    <row r="251" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A251" s="19" t="s">
         <v>279</v>
       </c>
@@ -54147,7 +54168,7 @@
         <v>219393.02544460777</v>
       </c>
     </row>
-    <row r="252" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A252" s="19" t="s">
         <v>124</v>
       </c>
@@ -54246,7 +54267,7 @@
         <v>215196.57578092359</v>
       </c>
     </row>
-    <row r="253" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A253" s="19" t="s">
         <v>255</v>
       </c>
@@ -54345,7 +54366,7 @@
         <v>199605.82160660543</v>
       </c>
     </row>
-    <row r="254" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A254" s="19" t="s">
         <v>243</v>
       </c>
@@ -54444,7 +54465,7 @@
         <v>198234.61106443426</v>
       </c>
     </row>
-    <row r="255" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A255" s="19" t="s">
         <v>493</v>
       </c>
@@ -54543,7 +54564,7 @@
         <v>198108.71358019268</v>
       </c>
     </row>
-    <row r="256" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A256" s="19" t="s">
         <v>307</v>
       </c>
@@ -54642,7 +54663,7 @@
         <v>193715.88168082273</v>
       </c>
     </row>
-    <row r="257" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A257" s="19" t="s">
         <v>293</v>
       </c>
@@ -54741,7 +54762,7 @@
         <v>188203.51848918691</v>
       </c>
     </row>
-    <row r="258" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A258" s="19" t="s">
         <v>130</v>
       </c>
@@ -54840,7 +54861,7 @@
         <v>184258.14088260004</v>
       </c>
     </row>
-    <row r="259" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A259" s="19" t="s">
         <v>239</v>
       </c>
@@ -54939,7 +54960,7 @@
         <v>173942.49168837335</v>
       </c>
     </row>
-    <row r="260" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A260" s="19" t="s">
         <v>120</v>
       </c>
@@ -55038,7 +55059,7 @@
         <v>173015.28922461008</v>
       </c>
     </row>
-    <row r="261" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A261" s="19" t="s">
         <v>373</v>
       </c>
@@ -55137,7 +55158,7 @@
         <v>170929.30030677363</v>
       </c>
     </row>
-    <row r="262" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A262" s="19" t="s">
         <v>146</v>
       </c>
@@ -55236,7 +55257,7 @@
         <v>162730.38717483575</v>
       </c>
     </row>
-    <row r="263" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A263" s="19" t="s">
         <v>194</v>
       </c>
@@ -55335,7 +55356,7 @@
         <v>153805.50664952642</v>
       </c>
     </row>
-    <row r="264" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A264" s="19" t="s">
         <v>301</v>
       </c>
@@ -55434,7 +55455,7 @@
         <v>150794.00289161509</v>
       </c>
     </row>
-    <row r="265" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A265" s="19" t="s">
         <v>170</v>
       </c>
@@ -55533,7 +55554,7 @@
         <v>145231.71512898992</v>
       </c>
     </row>
-    <row r="266" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A266" s="19" t="s">
         <v>162</v>
       </c>
@@ -55632,7 +55653,7 @@
         <v>138681.76430511949</v>
       </c>
     </row>
-    <row r="267" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A267" s="19" t="s">
         <v>191</v>
       </c>
@@ -55731,7 +55752,7 @@
         <v>136532.48365203405</v>
       </c>
     </row>
-    <row r="268" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A268" s="19" t="s">
         <v>439</v>
       </c>
@@ -55830,7 +55851,7 @@
         <v>123473.49156850723</v>
       </c>
     </row>
-    <row r="269" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A269" s="19" t="s">
         <v>281</v>
       </c>
@@ -55929,7 +55950,7 @@
         <v>123086.98902364718</v>
       </c>
     </row>
-    <row r="270" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A270" s="19" t="s">
         <v>430</v>
       </c>
@@ -56028,7 +56049,7 @@
         <v>119223.50580782055</v>
       </c>
     </row>
-    <row r="271" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A271" s="19" t="s">
         <v>286</v>
       </c>
@@ -56127,7 +56148,7 @@
         <v>117245.85338116408</v>
       </c>
     </row>
-    <row r="272" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A272" s="19" t="s">
         <v>308</v>
       </c>
@@ -56226,7 +56247,7 @@
         <v>111827.64993530017</v>
       </c>
     </row>
-    <row r="273" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A273" s="19" t="s">
         <v>398</v>
       </c>
@@ -56325,7 +56346,7 @@
         <v>106226.02236589399</v>
       </c>
     </row>
-    <row r="274" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A274" s="19" t="s">
         <v>319</v>
       </c>
@@ -56424,7 +56445,7 @@
         <v>103698.4595118859</v>
       </c>
     </row>
-    <row r="275" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A275" s="19" t="s">
         <v>304</v>
       </c>
@@ -56523,7 +56544,7 @@
         <v>101013.15945423444</v>
       </c>
     </row>
-    <row r="276" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A276" s="19" t="s">
         <v>93</v>
       </c>
@@ -56622,7 +56643,7 @@
         <v>99837.794966837217</v>
       </c>
     </row>
-    <row r="277" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A277" s="19" t="s">
         <v>103</v>
       </c>
@@ -56721,7 +56742,7 @@
         <v>98109.556909000006</v>
       </c>
     </row>
-    <row r="278" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A278" s="19" t="s">
         <v>110</v>
       </c>
@@ -56820,7 +56841,7 @@
         <v>97692.573164509449</v>
       </c>
     </row>
-    <row r="279" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A279" s="19" t="s">
         <v>424</v>
       </c>
@@ -56919,7 +56940,7 @@
         <v>92339.153797700346</v>
       </c>
     </row>
-    <row r="280" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A280" s="19" t="s">
         <v>201</v>
       </c>
@@ -57018,7 +57039,7 @@
         <v>88422.242212138517</v>
       </c>
     </row>
-    <row r="281" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A281" s="19" t="s">
         <v>107</v>
       </c>
@@ -57117,7 +57138,7 @@
         <v>88405.166965698387</v>
       </c>
     </row>
-    <row r="282" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A282" s="19" t="s">
         <v>97</v>
       </c>
@@ -57216,7 +57237,7 @@
         <v>80986.875814796236</v>
       </c>
     </row>
-    <row r="283" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A283" s="19" t="s">
         <v>443</v>
       </c>
@@ -57315,7 +57336,7 @@
         <v>80500.134861964121</v>
       </c>
     </row>
-    <row r="284" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A284" s="19" t="s">
         <v>306</v>
       </c>
@@ -57414,7 +57435,7 @@
         <v>76806.012381561552</v>
       </c>
     </row>
-    <row r="285" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A285" s="19" t="s">
         <v>244</v>
       </c>
@@ -57513,7 +57534,7 @@
         <v>74396.578556769062</v>
       </c>
     </row>
-    <row r="286" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A286" s="19" t="s">
         <v>181</v>
       </c>
@@ -57612,7 +57633,7 @@
         <v>72315.963262164878</v>
       </c>
     </row>
-    <row r="287" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A287" s="19" t="s">
         <v>395</v>
       </c>
@@ -57711,7 +57732,7 @@
         <v>71520.421745489308</v>
       </c>
     </row>
-    <row r="288" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A288" s="19" t="s">
         <v>163</v>
       </c>
@@ -57810,7 +57831,7 @@
         <v>68149.308606150124</v>
       </c>
     </row>
-    <row r="289" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A289" s="19" t="s">
         <v>228</v>
       </c>
@@ -57909,7 +57930,7 @@
         <v>67732.278699999995</v>
       </c>
     </row>
-    <row r="290" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A290" s="19" t="s">
         <v>381</v>
       </c>
@@ -58008,7 +58029,7 @@
         <v>62877.962389669578</v>
       </c>
     </row>
-    <row r="291" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A291" s="19" t="s">
         <v>182</v>
       </c>
@@ -58107,7 +58128,7 @@
         <v>62542.358146076796</v>
       </c>
     </row>
-    <row r="292" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A292" s="19" t="s">
         <v>457</v>
       </c>
@@ -58206,7 +58227,7 @@
         <v>62346.262106106507</v>
       </c>
     </row>
-    <row r="293" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A293" s="19" t="s">
         <v>311</v>
       </c>
@@ -58305,7 +58326,7 @@
         <v>61155.66754621057</v>
       </c>
     </row>
-    <row r="294" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A294" s="19" t="s">
         <v>222</v>
       </c>
@@ -58404,7 +58425,7 @@
         <v>56919.398368055299</v>
       </c>
     </row>
-    <row r="295" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A295" s="19" t="s">
         <v>173</v>
       </c>
@@ -58503,7 +58524,7 @@
         <v>56789.857074765154</v>
       </c>
     </row>
-    <row r="296" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A296" s="19" t="s">
         <v>157</v>
       </c>
@@ -58602,7 +58623,7 @@
         <v>55701.737756675459</v>
       </c>
     </row>
-    <row r="297" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A297" s="19" t="s">
         <v>150</v>
       </c>
@@ -58701,7 +58722,7 @@
         <v>53449.68291674793</v>
       </c>
     </row>
-    <row r="298" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A298" s="19" t="s">
         <v>491</v>
       </c>
@@ -58800,7 +58821,7 @@
         <v>52737.809119088975</v>
       </c>
     </row>
-    <row r="299" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A299" s="19" t="s">
         <v>426</v>
       </c>
@@ -58899,7 +58920,7 @@
         <v>49158.54480499999</v>
       </c>
     </row>
-    <row r="300" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A300" s="19" t="s">
         <v>421</v>
       </c>
@@ -58998,7 +59019,7 @@
         <v>46060.637053435792</v>
       </c>
     </row>
-    <row r="301" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A301" s="19" t="s">
         <v>212</v>
       </c>
@@ -59097,7 +59118,7 @@
         <v>44901.99837581694</v>
       </c>
     </row>
-    <row r="302" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A302" s="19" t="s">
         <v>126</v>
       </c>
@@ -59196,7 +59217,7 @@
         <v>44762.219999999994</v>
       </c>
     </row>
-    <row r="303" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A303" s="19" t="s">
         <v>261</v>
       </c>
@@ -59295,7 +59316,7 @@
         <v>42843.421553832297</v>
       </c>
     </row>
-    <row r="304" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A304" s="19" t="s">
         <v>253</v>
       </c>
@@ -59394,7 +59415,7 @@
         <v>41272.860881890148</v>
       </c>
     </row>
-    <row r="305" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A305" s="19" t="s">
         <v>263</v>
       </c>
@@ -59493,7 +59514,7 @@
         <v>39069.786089165078</v>
       </c>
     </row>
-    <row r="306" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A306" s="19" t="s">
         <v>468</v>
       </c>
@@ -59592,7 +59613,7 @@
         <v>33995.150805352612</v>
       </c>
     </row>
-    <row r="307" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A307" s="19" t="s">
         <v>451</v>
       </c>
@@ -59691,7 +59712,7 @@
         <v>32897.462237332547</v>
       </c>
     </row>
-    <row r="308" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A308" s="19" t="s">
         <v>115</v>
       </c>
@@ -59790,7 +59811,7 @@
         <v>32530.506738493292</v>
       </c>
     </row>
-    <row r="309" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A309" s="19" t="s">
         <v>217</v>
       </c>
@@ -59889,7 +59910,7 @@
         <v>32338.78177325827</v>
       </c>
     </row>
-    <row r="310" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A310" s="19" t="s">
         <v>270</v>
       </c>
@@ -59988,7 +60009,7 @@
         <v>31117.781793003127</v>
       </c>
     </row>
-    <row r="311" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A311" s="19" t="s">
         <v>179</v>
       </c>
@@ -60087,7 +60108,7 @@
         <v>29836.769387888675</v>
       </c>
     </row>
-    <row r="312" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A312" s="19" t="s">
         <v>214</v>
       </c>
@@ -60186,7 +60207,7 @@
         <v>28583.933824842035</v>
       </c>
     </row>
-    <row r="313" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A313" s="19" t="s">
         <v>365</v>
       </c>
@@ -60285,7 +60306,7 @@
         <v>28526.82553044572</v>
       </c>
     </row>
-    <row r="314" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A314" s="19" t="s">
         <v>195</v>
       </c>
@@ -60384,7 +60405,7 @@
         <v>27278.153764347819</v>
       </c>
     </row>
-    <row r="315" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A315" s="19" t="s">
         <v>489</v>
       </c>
@@ -60483,7 +60504,7 @@
         <v>26131.025014876544</v>
       </c>
     </row>
-    <row r="316" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A316" s="19" t="s">
         <v>376</v>
       </c>
@@ -60582,7 +60603,7 @@
         <v>23661.328830846734</v>
       </c>
     </row>
-    <row r="317" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A317" s="19" t="s">
         <v>272</v>
       </c>
@@ -60681,7 +60702,7 @@
         <v>22648.952721204449</v>
       </c>
     </row>
-    <row r="318" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A318" s="19" t="s">
         <v>454</v>
       </c>
@@ -60780,7 +60801,7 @@
         <v>22025.103227183678</v>
       </c>
     </row>
-    <row r="319" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A319" s="19" t="s">
         <v>338</v>
       </c>
@@ -60879,7 +60900,7 @@
         <v>21626.182071938321</v>
       </c>
     </row>
-    <row r="320" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A320" s="19" t="s">
         <v>238</v>
       </c>
@@ -60978,7 +60999,7 @@
         <v>20140.699706812076</v>
       </c>
     </row>
-    <row r="321" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A321" s="19" t="s">
         <v>264</v>
       </c>
@@ -61077,7 +61098,7 @@
         <v>19817.381204486828</v>
       </c>
     </row>
-    <row r="322" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A322" s="19" t="s">
         <v>363</v>
       </c>
@@ -61176,7 +61197,7 @@
         <v>16906.929929999995</v>
       </c>
     </row>
-    <row r="323" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A323" s="19" t="s">
         <v>440</v>
       </c>
@@ -61275,7 +61296,7 @@
         <v>15230.347115715183</v>
       </c>
     </row>
-    <row r="324" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A324" s="19" t="s">
         <v>349</v>
       </c>
@@ -61374,7 +61395,7 @@
         <v>14721.758319173967</v>
       </c>
     </row>
-    <row r="325" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A325" s="19" t="s">
         <v>111</v>
       </c>
@@ -61473,7 +61494,7 @@
         <v>14161.257195380515</v>
       </c>
     </row>
-    <row r="326" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A326" s="19" t="s">
         <v>135</v>
       </c>
@@ -61572,7 +61593,7 @@
         <v>13199.654624174516</v>
       </c>
     </row>
-    <row r="327" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A327" s="19" t="s">
         <v>486</v>
       </c>
@@ -61671,7 +61692,7 @@
         <v>12865.555694629844</v>
       </c>
     </row>
-    <row r="328" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A328" s="19" t="s">
         <v>341</v>
       </c>
@@ -61770,7 +61791,7 @@
         <v>12682.401420461252</v>
       </c>
     </row>
-    <row r="329" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A329" s="19" t="s">
         <v>366</v>
       </c>
@@ -61869,7 +61890,7 @@
         <v>12542.78631310323</v>
       </c>
     </row>
-    <row r="330" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A330" s="19" t="s">
         <v>131</v>
       </c>
@@ -61968,7 +61989,7 @@
         <v>10922.125038876997</v>
       </c>
     </row>
-    <row r="331" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A331" s="19" t="s">
         <v>309</v>
       </c>
@@ -62067,7 +62088,7 @@
         <v>9681.4441754642812</v>
       </c>
     </row>
-    <row r="332" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A332" s="19" t="s">
         <v>254</v>
       </c>
@@ -62166,7 +62187,7 @@
         <v>9535.3299374165217</v>
       </c>
     </row>
-    <row r="333" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A333" s="19" t="s">
         <v>207</v>
       </c>
@@ -62265,7 +62286,7 @@
         <v>9165.4404877796605</v>
       </c>
     </row>
-    <row r="334" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A334" s="19" t="s">
         <v>312</v>
       </c>
@@ -62364,7 +62385,7 @@
         <v>8585.237460090093</v>
       </c>
     </row>
-    <row r="335" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A335" s="19" t="s">
         <v>127</v>
       </c>
@@ -62463,7 +62484,7 @@
         <v>8496.3216117395277</v>
       </c>
     </row>
-    <row r="336" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A336" s="19" t="s">
         <v>289</v>
       </c>
@@ -62562,7 +62583,7 @@
         <v>7354.0847629327181</v>
       </c>
     </row>
-    <row r="337" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A337" s="19" t="s">
         <v>251</v>
       </c>
@@ -62661,7 +62682,7 @@
         <v>6395.3582923166787</v>
       </c>
     </row>
-    <row r="338" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A338" s="19" t="s">
         <v>202</v>
       </c>
@@ -62760,7 +62781,7 @@
         <v>5180.6641831151956</v>
       </c>
     </row>
-    <row r="339" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A339" s="19" t="s">
         <v>125</v>
       </c>
@@ -62859,7 +62880,7 @@
         <v>4777.964924707614</v>
       </c>
     </row>
-    <row r="340" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A340" s="19" t="s">
         <v>73</v>
       </c>
@@ -62958,7 +62979,7 @@
         <v>3051.5080699618998</v>
       </c>
     </row>
-    <row r="341" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A341" s="19" t="s">
         <v>452</v>
       </c>
@@ -63057,7 +63078,7 @@
         <v>2452.1155870000002</v>
       </c>
     </row>
-    <row r="342" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A342" s="19" t="s">
         <v>87</v>
       </c>
@@ -63156,7 +63177,7 @@
         <v>2109.4264209986172</v>
       </c>
     </row>
-    <row r="343" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A343" s="19" t="s">
         <v>300</v>
       </c>
@@ -63255,7 +63276,7 @@
         <v>2103.8535982911617</v>
       </c>
     </row>
-    <row r="344" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A344" s="19" t="s">
         <v>240</v>
       </c>
@@ -63354,7 +63375,7 @@
         <v>2058.4268747740757</v>
       </c>
     </row>
-    <row r="345" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A345" s="19" t="s">
         <v>370</v>
       </c>
@@ -63453,7 +63474,7 @@
         <v>2025.1874363956128</v>
       </c>
     </row>
-    <row r="346" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A346" s="19" t="s">
         <v>156</v>
       </c>
@@ -63552,7 +63573,7 @@
         <v>2004.937417084574</v>
       </c>
     </row>
-    <row r="347" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A347" s="19" t="s">
         <v>94</v>
       </c>
@@ -63651,7 +63672,7 @@
         <v>1594.5931338510425</v>
       </c>
     </row>
-    <row r="348" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A348" s="19" t="s">
         <v>178</v>
       </c>
@@ -63750,7 +63771,7 @@
         <v>1458.8709793193466</v>
       </c>
     </row>
-    <row r="349" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A349" s="19" t="s">
         <v>193</v>
       </c>
@@ -63849,7 +63870,7 @@
         <v>1287.261472429482</v>
       </c>
     </row>
-    <row r="350" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A350" s="19" t="s">
         <v>274</v>
       </c>
@@ -63948,7 +63969,7 @@
         <v>1272.528549857203</v>
       </c>
     </row>
-    <row r="351" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A351" s="19" t="s">
         <v>402</v>
       </c>
@@ -64047,7 +64068,7 @@
         <v>986.10817939073684</v>
       </c>
     </row>
-    <row r="352" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A352" s="19" t="s">
         <v>448</v>
       </c>
@@ -64146,7 +64167,7 @@
         <v>922.55578600146953</v>
       </c>
     </row>
-    <row r="353" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A353" s="19" t="s">
         <v>321</v>
       </c>
@@ -64245,7 +64266,7 @@
         <v>859.34153373871095</v>
       </c>
     </row>
-    <row r="354" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A354" s="19" t="s">
         <v>132</v>
       </c>
@@ -64344,7 +64365,7 @@
         <v>765.8575652714693</v>
       </c>
     </row>
-    <row r="355" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A355" s="19" t="s">
         <v>275</v>
       </c>
@@ -64443,7 +64464,7 @@
         <v>632.29976861460636</v>
       </c>
     </row>
-    <row r="356" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A356" s="19" t="s">
         <v>114</v>
       </c>
@@ -64542,7 +64563,7 @@
         <v>613.54727295849523</v>
       </c>
     </row>
-    <row r="357" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A357" s="19" t="s">
         <v>361</v>
       </c>
@@ -64641,7 +64662,7 @@
         <v>611.83329999927457</v>
       </c>
     </row>
-    <row r="358" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A358" s="19" t="s">
         <v>352</v>
       </c>
@@ -64740,7 +64761,7 @@
         <v>583.39617892999036</v>
       </c>
     </row>
-    <row r="359" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A359" s="19" t="s">
         <v>384</v>
       </c>
@@ -64839,7 +64860,7 @@
         <v>514.58002248888147</v>
       </c>
     </row>
-    <row r="360" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A360" s="19" t="s">
         <v>271</v>
       </c>
@@ -64938,7 +64959,7 @@
         <v>507.99385216676097</v>
       </c>
     </row>
-    <row r="361" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A361" s="19" t="s">
         <v>180</v>
       </c>
@@ -65037,7 +65058,7 @@
         <v>479.51196192126133</v>
       </c>
     </row>
-    <row r="362" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A362" s="19" t="s">
         <v>81</v>
       </c>
@@ -65136,7 +65157,7 @@
         <v>382.04124384373392</v>
       </c>
     </row>
-    <row r="363" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A363" s="19" t="s">
         <v>420</v>
       </c>
@@ -65235,7 +65256,7 @@
         <v>365.54832316327901</v>
       </c>
     </row>
-    <row r="364" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A364" s="19" t="s">
         <v>174</v>
       </c>
@@ -65334,7 +65355,7 @@
         <v>307.48145720038451</v>
       </c>
     </row>
-    <row r="365" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A365" s="19" t="s">
         <v>186</v>
       </c>
@@ -65433,7 +65454,7 @@
         <v>274.78977447203329</v>
       </c>
     </row>
-    <row r="366" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A366" s="19" t="s">
         <v>383</v>
       </c>
@@ -65532,7 +65553,7 @@
         <v>247.85751501682284</v>
       </c>
     </row>
-    <row r="367" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A367" s="19" t="s">
         <v>153</v>
       </c>
@@ -65631,7 +65652,7 @@
         <v>199.46456650799999</v>
       </c>
     </row>
-    <row r="368" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A368" s="19" t="s">
         <v>328</v>
       </c>
@@ -65730,7 +65751,7 @@
         <v>165.96286567999999</v>
       </c>
     </row>
-    <row r="369" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A369" s="19" t="s">
         <v>404</v>
       </c>
@@ -65829,7 +65850,7 @@
         <v>84.628134581837699</v>
       </c>
     </row>
-    <row r="370" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A370" s="19" t="s">
         <v>322</v>
       </c>
@@ -65928,7 +65949,7 @@
         <v>47.385956292007194</v>
       </c>
     </row>
-    <row r="371" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A371" s="19" t="s">
         <v>118</v>
       </c>
@@ -66027,7 +66048,7 @@
         <v>41.291989770411966</v>
       </c>
     </row>
-    <row r="372" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A372" s="19" t="s">
         <v>134</v>
       </c>
@@ -66126,7 +66147,7 @@
         <v>32.735422078850064</v>
       </c>
     </row>
-    <row r="373" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A373" s="19" t="s">
         <v>481</v>
       </c>
@@ -66225,7 +66246,7 @@
         <v>26.432622343301652</v>
       </c>
     </row>
-    <row r="374" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A374" s="19" t="s">
         <v>215</v>
       </c>
@@ -66324,7 +66345,7 @@
         <v>21.911716185189128</v>
       </c>
     </row>
-    <row r="375" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A375" s="19" t="s">
         <v>95</v>
       </c>
@@ -66423,7 +66444,7 @@
         <v>18.125857907079748</v>
       </c>
     </row>
-    <row r="376" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A376" s="19" t="s">
         <v>388</v>
       </c>
@@ -66522,7 +66543,7 @@
         <v>17.046324387695996</v>
       </c>
     </row>
-    <row r="377" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A377" s="19" t="s">
         <v>460</v>
       </c>
@@ -66621,7 +66642,7 @@
         <v>9.3890229800223413</v>
       </c>
     </row>
-    <row r="378" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A378" s="19" t="s">
         <v>234</v>
       </c>
@@ -66720,7 +66741,7 @@
         <v>7.6409184227118496</v>
       </c>
     </row>
-    <row r="379" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A379" s="19" t="s">
         <v>310</v>
       </c>
@@ -66819,7 +66840,7 @@
         <v>7.2392112113627434</v>
       </c>
     </row>
-    <row r="380" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A380" s="19" t="s">
         <v>79</v>
       </c>
@@ -66918,7 +66939,7 @@
         <v>6.0032387735193975</v>
       </c>
     </row>
-    <row r="381" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A381" s="19" t="s">
         <v>291</v>
       </c>
@@ -67017,7 +67038,7 @@
         <v>4.0022293939502003</v>
       </c>
     </row>
-    <row r="382" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A382" s="19" t="s">
         <v>276</v>
       </c>
@@ -67116,7 +67137,7 @@
         <v>1.2502464257050507</v>
       </c>
     </row>
-    <row r="383" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A383" s="19" t="s">
         <v>221</v>
       </c>
@@ -67215,7 +67236,7 @@
         <v>0.33427781984585497</v>
       </c>
     </row>
-    <row r="384" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A384" s="19" t="s">
         <v>463</v>
       </c>
@@ -67314,7 +67335,7 @@
         <v>1.8076199943705799E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A385" s="19" t="s">
         <v>418</v>
       </c>
@@ -67413,7 +67434,7 @@
         <v>1.0215667023800003E-7</v>
       </c>
     </row>
-    <row r="386" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A386" s="19" t="s">
         <v>84</v>
       </c>
@@ -67512,7 +67533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A387" s="19" t="s">
         <v>91</v>
       </c>
@@ -67611,7 +67632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A388" s="19" t="s">
         <v>109</v>
       </c>
@@ -67710,7 +67731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A389" s="19" t="s">
         <v>119</v>
       </c>
@@ -67809,7 +67830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A390" s="19" t="s">
         <v>128</v>
       </c>
@@ -67908,7 +67929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A391" s="19" t="s">
         <v>149</v>
       </c>
@@ -68007,7 +68028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A392" s="19" t="s">
         <v>161</v>
       </c>
@@ -68106,7 +68127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A393" s="19" t="s">
         <v>210</v>
       </c>
@@ -68205,7 +68226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A394" s="19" t="s">
         <v>461</v>
       </c>
@@ -68304,7 +68325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A395" s="19" t="s">
         <v>229</v>
       </c>
@@ -68403,7 +68424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A396" s="19" t="s">
         <v>231</v>
       </c>
@@ -68502,7 +68523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A397" s="19" t="s">
         <v>233</v>
       </c>
@@ -68601,7 +68622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A398" s="19" t="s">
         <v>237</v>
       </c>
@@ -68700,7 +68721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A399" s="19" t="s">
         <v>466</v>
       </c>
@@ -68799,7 +68820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A400" s="19" t="s">
         <v>394</v>
       </c>
@@ -68898,7 +68919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A401" s="19" t="s">
         <v>252</v>
       </c>
@@ -68997,7 +69018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A402" s="19" t="s">
         <v>265</v>
       </c>
@@ -69096,7 +69117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A403" s="19" t="s">
         <v>273</v>
       </c>
@@ -69195,7 +69216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A404" s="19" t="s">
         <v>283</v>
       </c>
@@ -69294,7 +69315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A405" s="19" t="s">
         <v>327</v>
       </c>
@@ -69393,7 +69414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A406" s="19" t="s">
         <v>330</v>
       </c>
@@ -69492,7 +69513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A407" s="19" t="s">
         <v>333</v>
       </c>
@@ -69591,7 +69612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A408" s="19" t="s">
         <v>346</v>
       </c>
@@ -69690,7 +69711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A409" s="19" t="s">
         <v>371</v>
       </c>
@@ -69789,7 +69810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A410" s="19" t="s">
         <v>377</v>
       </c>
@@ -69888,7 +69909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A411" s="19" t="s">
         <v>380</v>
       </c>
@@ -69987,7 +70008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A412" s="19" t="s">
         <v>345</v>
       </c>
